--- a/WSC/Test Report/SLCM/WSC SLCM_Academics_Attendance & Leave Application.xlsx
+++ b/WSC/Test Report/SLCM/WSC SLCM_Academics_Attendance & Leave Application.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,9 @@
   </si>
   <si>
     <t>url: wscdemo.eduleadonline.com
-SLCM Admin: eduadmin@gmail.com, PW: admin@123
-Trainer: trainer@test.com,  PW: admin@123
-Student: student@test.com, PW: admin@123</t>
+SLCM Admin: eduadmin@gmail.com, PW: erp@123
+Trainer: trainer@test.com,  PW: erp@123
+Student: student@test.com, PW: erp@123</t>
   </si>
   <si>
     <t>The page should open with all the generic buttons and fields as a normal application behavior</t>
@@ -1864,10 +1864,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2562,16 +2562,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2705,7 +2705,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2820,8 +2820,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2959,9 +2965,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3063,6 +3066,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3451,41 +3457,41 @@
   </cols>
   <sheetData>
     <row r="2" s="25" customFormat="1" ht="21" spans="1:6">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
     </row>
     <row r="4" s="25" customFormat="1" ht="150" spans="1:13">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="143" t="s">
+      <c r="E4" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="143" t="s">
+      <c r="F4" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
     </row>
     <row r="5" s="25" customFormat="1" spans="2:13">
       <c r="B5" s="29"/>
@@ -3519,30 +3525,30 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="98" customWidth="1"/>
-    <col min="2" max="2" width="47.4285714285714" style="98" customWidth="1"/>
-    <col min="3" max="3" width="60" style="98" customWidth="1"/>
-    <col min="4" max="4" width="57.5714285714286" style="98" customWidth="1"/>
-    <col min="5" max="5" width="22.5714285714286" style="98" customWidth="1"/>
-    <col min="6" max="6" width="43.1428571428571" style="98" customWidth="1"/>
-    <col min="7" max="7" width="23.4285714285714" style="98" customWidth="1"/>
-    <col min="8" max="8" width="10.2857142857143" style="98" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="98"/>
+    <col min="1" max="1" width="18.7142857142857" style="100" customWidth="1"/>
+    <col min="2" max="2" width="47.4285714285714" style="100" customWidth="1"/>
+    <col min="3" max="3" width="60" style="100" customWidth="1"/>
+    <col min="4" max="4" width="57.5714285714286" style="100" customWidth="1"/>
+    <col min="5" max="5" width="22.5714285714286" style="100" customWidth="1"/>
+    <col min="6" max="6" width="43.1428571428571" style="100" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="100" customWidth="1"/>
+    <col min="8" max="8" width="10.2857142857143" style="100" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" s="98" customFormat="1" ht="52" customHeight="1" spans="1:9">
-      <c r="A1" s="99" t="s">
+    <row r="1" s="100" customFormat="1" ht="52" customHeight="1" spans="1:9">
+      <c r="A1" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="52" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="47" t="s">
@@ -3554,310 +3560,308 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
     </row>
-    <row r="2" s="98" customFormat="1" spans="1:9">
-      <c r="A2" s="99" t="s">
+    <row r="2" s="100" customFormat="1" spans="1:9">
+      <c r="A2" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-    </row>
-    <row r="5" s="98" customFormat="1" spans="1:8">
-      <c r="A5" s="99" t="s">
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+    </row>
+    <row r="5" s="100" customFormat="1" spans="1:8">
+      <c r="A5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="99" t="s">
+      <c r="C5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-    </row>
-    <row r="6" s="98" customFormat="1" ht="75" spans="1:8">
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+    </row>
+    <row r="6" s="100" customFormat="1" ht="75" spans="1:8">
       <c r="A6" s="48">
         <v>1</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-    </row>
-    <row r="7" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+    </row>
+    <row r="7" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A7" s="48">
         <v>2</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-    </row>
-    <row r="8" s="98" customFormat="1" spans="1:9">
+      <c r="C7" s="102"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+    </row>
+    <row r="8" s="100" customFormat="1" spans="1:9">
       <c r="A8" s="48">
         <v>3</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="100"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-    </row>
-    <row r="9" s="98" customFormat="1" spans="1:9">
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+    </row>
+    <row r="9" s="100" customFormat="1" spans="1:9">
       <c r="A9" s="48">
         <v>4</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-    </row>
-    <row r="10" s="98" customFormat="1" spans="1:9">
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+    </row>
+    <row r="10" s="100" customFormat="1" spans="1:9">
       <c r="A10" s="48">
         <v>5</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-    </row>
-    <row r="11" s="98" customFormat="1" spans="1:9">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-    </row>
-    <row r="12" s="98" customFormat="1" spans="1:9">
-      <c r="A12" s="99" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+    </row>
+    <row r="11" s="100" customFormat="1" spans="1:9">
+      <c r="A11" s="101"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+    </row>
+    <row r="12" s="100" customFormat="1" spans="1:9">
+      <c r="A12" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-    </row>
-    <row r="13" s="98" customFormat="1" spans="1:9">
-      <c r="A13" s="104">
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+    </row>
+    <row r="13" s="100" customFormat="1" spans="1:9">
+      <c r="A13" s="105">
         <v>1</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-    </row>
-    <row r="14" s="98" customFormat="1" spans="1:9">
-      <c r="A14" s="112">
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+    </row>
+    <row r="14" s="100" customFormat="1" spans="1:9">
+      <c r="A14" s="113">
         <v>2</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-    </row>
-    <row r="15" s="98" customFormat="1" spans="1:9">
-      <c r="A15" s="112">
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+    </row>
+    <row r="15" s="100" customFormat="1" spans="1:9">
+      <c r="A15" s="113">
         <v>3</v>
       </c>
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-    </row>
-    <row r="16" s="98" customFormat="1" spans="1:9">
-      <c r="A16" s="112">
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+    </row>
+    <row r="16" s="100" customFormat="1" spans="1:9">
+      <c r="A16" s="113">
         <v>4</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-    </row>
-    <row r="17" s="98" customFormat="1" spans="1:9">
-      <c r="A17" s="112">
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+    </row>
+    <row r="17" s="100" customFormat="1" spans="1:9">
+      <c r="A17" s="113">
         <v>5</v>
       </c>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-    </row>
-    <row r="18" s="98" customFormat="1" ht="30" spans="1:9">
-      <c r="A18" s="112">
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+    </row>
+    <row r="18" s="100" customFormat="1" ht="30" spans="1:9">
+      <c r="A18" s="113">
         <v>6</v>
       </c>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-    </row>
-    <row r="19" s="98" customFormat="1" spans="1:9">
-      <c r="A19" s="112">
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+    </row>
+    <row r="19" s="100" customFormat="1" spans="1:9">
+      <c r="A19" s="113">
         <v>7</v>
       </c>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-    </row>
-    <row r="20" s="125" customFormat="1" spans="1:2">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98"/>
-    </row>
-    <row r="21" s="98" customFormat="1" spans="9:9">
-      <c r="I21" s="132"/>
-    </row>
-    <row r="22" s="98" customFormat="1" ht="30" spans="1:9">
-      <c r="A22" s="134" t="s">
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+    </row>
+    <row r="20" s="126" customFormat="1" spans="1:2">
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+    </row>
+    <row r="21" s="100" customFormat="1" spans="9:9">
+      <c r="I21" s="133"/>
+    </row>
+    <row r="22" s="100" customFormat="1" ht="30" spans="1:9">
+      <c r="A22" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="134" t="s">
+      <c r="D22" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="135" t="s">
+      <c r="E22" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="134" t="s">
+      <c r="F22" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="135" t="s">
+      <c r="G22" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="135" t="s">
+      <c r="H22" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="132"/>
-    </row>
-    <row r="23" s="98" customFormat="1" ht="45" spans="1:9">
+      <c r="I22" s="133"/>
+    </row>
+    <row r="23" s="100" customFormat="1" ht="45" spans="1:9">
       <c r="A23" s="47">
         <v>1</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="65" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="47" t="s">
@@ -3866,23 +3870,23 @@
       <c r="D23" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="108" t="s">
+      <c r="E23" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="109"/>
-      <c r="I23" s="132"/>
-    </row>
-    <row r="24" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="G23" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="110"/>
+      <c r="I23" s="133"/>
+    </row>
+    <row r="24" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A24" s="48">
         <v>2</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="68" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="47" t="s">
@@ -3891,22 +3895,22 @@
       <c r="D24" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="108" t="s">
+      <c r="E24" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="54"/>
-    </row>
-    <row r="25" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="G24" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="56"/>
+    </row>
+    <row r="25" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A25" s="48">
         <v>3</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="68" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="47" t="s">
@@ -3915,20 +3919,20 @@
       <c r="D25" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="108" t="s">
+      <c r="E25" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F25" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="54"/>
-    </row>
-    <row r="26" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="G25" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="56"/>
+    </row>
+    <row r="26" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A26" s="48"/>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="68" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="47" t="s">
@@ -3937,22 +3941,22 @@
       <c r="D26" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="108" t="s">
+      <c r="E26" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="54"/>
-    </row>
-    <row r="27" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="G26" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="56"/>
+    </row>
+    <row r="27" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A27" s="48">
         <v>4</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="68" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="47" t="s">
@@ -3961,22 +3965,22 @@
       <c r="D27" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="108" t="s">
+      <c r="E27" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="54"/>
-    </row>
-    <row r="28" s="98" customFormat="1" ht="60" spans="1:8">
+      <c r="G27" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="56"/>
+    </row>
+    <row r="28" s="100" customFormat="1" ht="60" spans="1:8">
       <c r="A28" s="48">
         <v>5</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="70" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="48" t="s">
@@ -3985,22 +3989,22 @@
       <c r="D28" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="108" t="s">
+      <c r="E28" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="54"/>
-    </row>
-    <row r="29" s="98" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
+      <c r="G28" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="56"/>
+    </row>
+    <row r="29" s="100" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
       <c r="A29" s="48">
         <v>6</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="70" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="47" t="s">
@@ -4009,18 +4013,18 @@
       <c r="D29" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="108" t="s">
+      <c r="E29" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="54"/>
-    </row>
-    <row r="30" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="G29" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="56"/>
+    </row>
+    <row r="30" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A30" s="48">
         <v>7</v>
       </c>
@@ -4033,18 +4037,18 @@
       <c r="D30" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="108" t="s">
+      <c r="E30" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="54"/>
-    </row>
-    <row r="31" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="G30" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="56"/>
+    </row>
+    <row r="31" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A31" s="48">
         <v>8</v>
       </c>
@@ -4057,18 +4061,18 @@
       <c r="D31" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="108" t="s">
+      <c r="E31" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="54"/>
-    </row>
-    <row r="32" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="G31" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="56"/>
+    </row>
+    <row r="32" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A32" s="48"/>
       <c r="B32" s="48" t="s">
         <v>68</v>
@@ -4079,18 +4083,18 @@
       <c r="D32" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="108" t="s">
+      <c r="E32" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F32" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="54"/>
-    </row>
-    <row r="33" s="98" customFormat="1" ht="45" spans="1:8">
+      <c r="G32" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="56"/>
+    </row>
+    <row r="33" s="100" customFormat="1" ht="45" spans="1:8">
       <c r="A33" s="48">
         <v>9</v>
       </c>
@@ -4103,18 +4107,18 @@
       <c r="D33" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="108" t="s">
+      <c r="E33" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F33" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="112"/>
-    </row>
-    <row r="34" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="G33" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="113"/>
+    </row>
+    <row r="34" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A34" s="48"/>
       <c r="B34" s="48" t="s">
         <v>73</v>
@@ -4125,18 +4129,18 @@
       <c r="D34" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="108" t="s">
+      <c r="E34" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="112"/>
-    </row>
-    <row r="35" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="G34" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="113"/>
+    </row>
+    <row r="35" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A35" s="48"/>
       <c r="B35" s="48" t="s">
         <v>76</v>
@@ -4147,18 +4151,18 @@
       <c r="D35" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="108" t="s">
+      <c r="E35" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="112"/>
-    </row>
-    <row r="36" s="98" customFormat="1" ht="45" spans="1:8">
+      <c r="G35" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="113"/>
+    </row>
+    <row r="36" s="100" customFormat="1" ht="45" spans="1:8">
       <c r="A36" s="48">
         <v>10</v>
       </c>
@@ -4171,18 +4175,18 @@
       <c r="D36" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="108" t="s">
+      <c r="E36" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F36" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G36" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="112"/>
-    </row>
-    <row r="37" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="G36" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="113"/>
+    </row>
+    <row r="37" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A37" s="48">
         <v>11</v>
       </c>
@@ -4195,18 +4199,18 @@
       <c r="D37" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="108" t="s">
+      <c r="E37" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F37" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G37" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="112"/>
-    </row>
-    <row r="38" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="G37" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="113"/>
+    </row>
+    <row r="38" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A38" s="48">
         <v>12</v>
       </c>
@@ -4219,18 +4223,18 @@
       <c r="D38" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="108" t="s">
+      <c r="E38" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F38" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="G38" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="112"/>
-    </row>
-    <row r="39" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="G38" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="113"/>
+    </row>
+    <row r="39" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A39" s="48">
         <v>13</v>
       </c>
@@ -4243,18 +4247,18 @@
       <c r="D39" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="108" t="s">
+      <c r="E39" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F39" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="G39" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="112"/>
-    </row>
-    <row r="40" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="G39" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="113"/>
+    </row>
+    <row r="40" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A40" s="48">
         <v>14</v>
       </c>
@@ -4267,398 +4271,398 @@
       <c r="D40" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="108" t="s">
+      <c r="E40" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="G40" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="112"/>
-    </row>
-    <row r="41" s="98" customFormat="1" ht="45" spans="1:8">
+      <c r="G40" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="113"/>
+    </row>
+    <row r="41" s="100" customFormat="1" ht="45" spans="1:8">
       <c r="A41" s="48">
         <v>15</v>
       </c>
-      <c r="B41" s="136" t="s">
+      <c r="B41" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="136" t="s">
+      <c r="C41" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="136" t="s">
+      <c r="D41" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="136" t="s">
+      <c r="E41" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="112"/>
-    </row>
-    <row r="42" s="98" customFormat="1" spans="1:8">
+      <c r="G41" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="113"/>
+    </row>
+    <row r="42" s="100" customFormat="1" spans="1:8">
       <c r="A42" s="48"/>
       <c r="B42" s="47"/>
       <c r="C42" s="48"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-    </row>
-    <row r="43" s="98" customFormat="1" spans="1:8">
-      <c r="A43" s="115"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-    </row>
-    <row r="44" s="98" customFormat="1" spans="1:8">
-      <c r="A44" s="119" t="s">
+      <c r="D42" s="56"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+    </row>
+    <row r="43" s="100" customFormat="1" spans="1:8">
+      <c r="A43" s="116"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="118"/>
+    </row>
+    <row r="44" s="100" customFormat="1" spans="1:8">
+      <c r="A44" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="120"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-    </row>
-    <row r="45" s="98" customFormat="1" ht="60" spans="1:8">
-      <c r="A45" s="121">
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+    </row>
+    <row r="45" s="100" customFormat="1" ht="60" spans="1:8">
+      <c r="A45" s="122">
         <v>14</v>
       </c>
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="106" t="s">
+      <c r="C45" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="106" t="s">
+      <c r="D45" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="122"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="106"/>
-    </row>
-    <row r="46" s="98" customFormat="1" ht="30" spans="1:8">
-      <c r="A46" s="121">
+      <c r="E45" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="107"/>
+    </row>
+    <row r="46" s="100" customFormat="1" ht="30" spans="1:8">
+      <c r="A46" s="122">
         <v>15</v>
       </c>
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="106" t="s">
+      <c r="C46" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="106" t="s">
+      <c r="D46" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="E46" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="106"/>
-    </row>
-    <row r="47" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A47" s="121">
+      <c r="E46" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="123"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="107"/>
+    </row>
+    <row r="47" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A47" s="122">
         <v>17</v>
       </c>
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="106" t="s">
+      <c r="C47" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="106" t="s">
+      <c r="D47" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="E47" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="122"/>
-      <c r="G47" s="122"/>
-      <c r="H47" s="106"/>
-    </row>
-    <row r="48" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A48" s="121">
+      <c r="E47" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="123"/>
+      <c r="G47" s="123"/>
+      <c r="H47" s="107"/>
+    </row>
+    <row r="48" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A48" s="122">
         <v>18</v>
       </c>
-      <c r="B48" s="123" t="s">
+      <c r="B48" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="131" t="s">
+      <c r="C48" s="132" t="s">
         <v>105</v>
       </c>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-    </row>
-    <row r="49" s="98" customFormat="1" spans="1:8">
-      <c r="A49" s="125"/>
-      <c r="B49" s="125"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="125"/>
-    </row>
-    <row r="50" s="98" customFormat="1" ht="30" spans="1:8">
-      <c r="A50" s="126" t="s">
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+    </row>
+    <row r="49" s="100" customFormat="1" spans="1:8">
+      <c r="A49" s="126"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="126"/>
+      <c r="G49" s="126"/>
+      <c r="H49" s="126"/>
+    </row>
+    <row r="50" s="100" customFormat="1" ht="30" spans="1:8">
+      <c r="A50" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="126" t="s">
+      <c r="B50" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="126" t="s">
+      <c r="C50" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="126" t="s">
+      <c r="D50" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="137" t="s">
+      <c r="E50" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137" t="s">
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A51" s="92">
+    <row r="51" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A51" s="94">
         <v>1</v>
       </c>
-      <c r="B51" s="92" t="s">
+      <c r="B51" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="92" t="s">
+      <c r="C51" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="92" t="s">
+      <c r="D51" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="138"/>
-    </row>
-    <row r="52" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52" t="s">
+      <c r="E51" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="140"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="140"/>
+    </row>
+    <row r="52" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A52" s="54"/>
+      <c r="B52" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="52" t="s">
+      <c r="C52" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="D52" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E52" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="106"/>
-    </row>
-    <row r="53" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52" t="s">
+      <c r="E52" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="107"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="107"/>
+    </row>
+    <row r="53" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A53" s="54"/>
+      <c r="B53" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="E53" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-    </row>
-    <row r="54" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A54" s="52">
+      <c r="E53" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+    </row>
+    <row r="54" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A54" s="54">
         <v>2</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="52" t="s">
+      <c r="C54" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="E54" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="106"/>
-      <c r="G54" s="106"/>
-      <c r="H54" s="106"/>
-    </row>
-    <row r="55" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52" t="s">
+      <c r="E54" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="107"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="107"/>
+    </row>
+    <row r="55" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A55" s="54"/>
+      <c r="B55" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="C55" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E55" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-    </row>
-    <row r="56" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52" t="s">
+      <c r="E55" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+    </row>
+    <row r="56" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A56" s="54"/>
+      <c r="B56" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="52" t="s">
+      <c r="C56" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-    </row>
-    <row r="57" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A57" s="52">
+      <c r="E56" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="107"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="107"/>
+    </row>
+    <row r="57" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A57" s="54">
         <v>3</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C57" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="D57" s="52" t="s">
+      <c r="D57" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="E57" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="106"/>
-    </row>
-    <row r="58" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52" t="s">
+      <c r="E57" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
+    </row>
+    <row r="58" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A58" s="54"/>
+      <c r="B58" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="52" t="s">
+      <c r="C58" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="106"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="106"/>
-    </row>
-    <row r="59" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52" t="s">
+      <c r="E58" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="107"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="107"/>
+    </row>
+    <row r="59" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A59" s="54"/>
+      <c r="B59" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="52" t="s">
+      <c r="C59" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="52" t="s">
+      <c r="D59" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="106"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="106"/>
-    </row>
-    <row r="60" s="133" customFormat="1" ht="45" spans="1:8">
-      <c r="A60" s="139">
+      <c r="E59" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="107"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="107"/>
+    </row>
+    <row r="60" s="134" customFormat="1" ht="45" spans="1:8">
+      <c r="A60" s="141">
         <v>4</v>
       </c>
-      <c r="B60" s="129" t="s">
+      <c r="B60" s="130" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="129" t="s">
+      <c r="C60" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="129" t="s">
+      <c r="D60" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="140"/>
-      <c r="F60" s="141"/>
-      <c r="G60" s="141"/>
-      <c r="H60" s="141"/>
-    </row>
-    <row r="61" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A61" s="139"/>
-      <c r="B61" s="131" t="s">
+      <c r="E60" s="142"/>
+      <c r="F60" s="143"/>
+      <c r="G60" s="143"/>
+      <c r="H60" s="143"/>
+    </row>
+    <row r="61" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A61" s="141"/>
+      <c r="B61" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="131" t="s">
+      <c r="C61" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="131" t="s">
+      <c r="D61" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="E61" s="108"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-    </row>
-    <row r="62" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A62" s="139"/>
-      <c r="B62" s="131" t="s">
+      <c r="E61" s="109"/>
+      <c r="F61" s="113"/>
+      <c r="G61" s="113"/>
+      <c r="H61" s="113"/>
+    </row>
+    <row r="62" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A62" s="141"/>
+      <c r="B62" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="131" t="s">
+      <c r="C62" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="131" t="s">
+      <c r="D62" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="E62" s="108"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="112"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4679,31 +4683,31 @@
   <sheetPr/>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.4285714285714" style="98" customWidth="1"/>
-    <col min="2" max="2" width="50.1428571428571" style="98" customWidth="1"/>
-    <col min="3" max="3" width="49" style="98" customWidth="1"/>
-    <col min="4" max="4" width="48.8571428571429" style="98" customWidth="1"/>
-    <col min="5" max="5" width="14.7142857142857" style="98" customWidth="1"/>
-    <col min="6" max="6" width="46.8571428571429" style="98" customWidth="1"/>
-    <col min="7" max="7" width="17.8571428571429" style="98" customWidth="1"/>
-    <col min="8" max="8" width="10.2857142857143" style="98" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="98"/>
+    <col min="1" max="1" width="12.4285714285714" style="100" customWidth="1"/>
+    <col min="2" max="2" width="50.1428571428571" style="100" customWidth="1"/>
+    <col min="3" max="3" width="49" style="100" customWidth="1"/>
+    <col min="4" max="4" width="48.8571428571429" style="100" customWidth="1"/>
+    <col min="5" max="5" width="14.7142857142857" style="100" customWidth="1"/>
+    <col min="6" max="6" width="46.8571428571429" style="100" customWidth="1"/>
+    <col min="7" max="7" width="17.8571428571429" style="100" customWidth="1"/>
+    <col min="8" max="8" width="10.2857142857143" style="100" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" s="98" customFormat="1" ht="52" customHeight="1" spans="1:9">
-      <c r="A1" s="99" t="s">
+    <row r="1" s="100" customFormat="1" ht="52" customHeight="1" spans="1:9">
+      <c r="A1" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="52" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="47" t="s">
@@ -4715,287 +4719,287 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
     </row>
-    <row r="2" s="98" customFormat="1" spans="1:9">
-      <c r="A2" s="99" t="s">
+    <row r="2" s="100" customFormat="1" spans="1:9">
+      <c r="A2" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-    </row>
-    <row r="5" s="98" customFormat="1" spans="1:8">
-      <c r="A5" s="99" t="s">
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+    </row>
+    <row r="5" s="100" customFormat="1" spans="1:8">
+      <c r="A5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="99" t="s">
+      <c r="C5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-    </row>
-    <row r="6" s="98" customFormat="1" ht="75" spans="1:8">
+      <c r="D5" s="101"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+    </row>
+    <row r="6" s="100" customFormat="1" ht="75" spans="1:8">
       <c r="A6" s="48">
         <v>1</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-    </row>
-    <row r="7" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="D6" s="101"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+    </row>
+    <row r="7" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A7" s="48">
         <v>2</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-    </row>
-    <row r="8" s="98" customFormat="1" spans="1:9">
+      <c r="C7" s="102"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+    </row>
+    <row r="8" s="100" customFormat="1" spans="1:9">
       <c r="A8" s="48">
         <v>3</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-    </row>
-    <row r="9" s="98" customFormat="1" spans="1:9">
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+    </row>
+    <row r="9" s="100" customFormat="1" spans="1:9">
       <c r="A9" s="48">
         <v>4</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-    </row>
-    <row r="10" s="98" customFormat="1" spans="1:9">
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+    </row>
+    <row r="10" s="100" customFormat="1" spans="1:9">
       <c r="A10" s="48">
         <v>5</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-    </row>
-    <row r="11" s="98" customFormat="1" spans="1:9">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-    </row>
-    <row r="12" s="98" customFormat="1" spans="1:9">
-      <c r="A12" s="99" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+    </row>
+    <row r="11" s="100" customFormat="1" spans="1:9">
+      <c r="A11" s="101"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+    </row>
+    <row r="12" s="100" customFormat="1" spans="1:9">
+      <c r="A12" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-    </row>
-    <row r="13" s="98" customFormat="1" spans="1:9">
-      <c r="A13" s="104">
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+    </row>
+    <row r="13" s="100" customFormat="1" spans="1:9">
+      <c r="A13" s="105">
         <v>1</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-    </row>
-    <row r="14" s="98" customFormat="1" spans="1:9">
-      <c r="A14" s="104">
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+    </row>
+    <row r="14" s="100" customFormat="1" spans="1:9">
+      <c r="A14" s="105">
         <v>2</v>
       </c>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-    </row>
-    <row r="15" s="98" customFormat="1" spans="1:9">
-      <c r="A15" s="104">
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+    </row>
+    <row r="15" s="100" customFormat="1" spans="1:9">
+      <c r="A15" s="105">
         <v>3</v>
       </c>
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-    </row>
-    <row r="16" s="98" customFormat="1" spans="1:9">
-      <c r="A16" s="104">
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+    </row>
+    <row r="16" s="100" customFormat="1" spans="1:9">
+      <c r="A16" s="105">
         <v>4</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-    </row>
-    <row r="17" s="98" customFormat="1" spans="1:9">
-      <c r="A17" s="104">
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+    </row>
+    <row r="17" s="100" customFormat="1" spans="1:9">
+      <c r="A17" s="105">
         <v>5</v>
       </c>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-    </row>
-    <row r="18" s="98" customFormat="1" spans="1:9">
-      <c r="A18" s="104">
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+    </row>
+    <row r="18" s="100" customFormat="1" spans="1:9">
+      <c r="A18" s="105">
         <v>6</v>
       </c>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-    </row>
-    <row r="19" s="98" customFormat="1" spans="9:9">
-      <c r="I19" s="132"/>
-    </row>
-    <row r="20" s="98" customFormat="1" ht="45" spans="1:9">
-      <c r="A20" s="107" t="s">
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+    </row>
+    <row r="19" s="100" customFormat="1" spans="9:9">
+      <c r="I19" s="133"/>
+    </row>
+    <row r="20" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="A20" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="107" t="s">
+      <c r="D20" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="99" t="s">
+      <c r="E20" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="107" t="s">
+      <c r="F20" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="99" t="s">
+      <c r="G20" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="99" t="s">
+      <c r="H20" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="132"/>
-    </row>
-    <row r="21" s="98" customFormat="1" ht="45" spans="1:9">
+      <c r="I20" s="133"/>
+    </row>
+    <row r="21" s="100" customFormat="1" ht="45" spans="1:9">
       <c r="A21" s="47">
         <v>1</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="65" t="s">
         <v>135</v>
       </c>
       <c r="C21" s="47" t="s">
@@ -5004,23 +5008,23 @@
       <c r="D21" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="108" t="s">
+      <c r="E21" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="109"/>
-      <c r="I21" s="132"/>
-    </row>
-    <row r="22" s="98" customFormat="1" ht="45" spans="1:8">
+      <c r="G21" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="110"/>
+      <c r="I21" s="133"/>
+    </row>
+    <row r="22" s="100" customFormat="1" ht="45" spans="1:8">
       <c r="A22" s="48">
         <v>2</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="70" t="s">
         <v>138</v>
       </c>
       <c r="C22" s="47" t="s">
@@ -5029,22 +5033,22 @@
       <c r="D22" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="108" t="s">
+      <c r="E22" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="G22" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="54"/>
-    </row>
-    <row r="23" s="98" customFormat="1" spans="1:8">
-      <c r="A23" s="110">
+      <c r="G22" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="56"/>
+    </row>
+    <row r="23" s="100" customFormat="1" spans="1:8">
+      <c r="A23" s="111">
         <v>3</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="112" t="s">
         <v>141</v>
       </c>
       <c r="C23" s="48" t="s">
@@ -5053,22 +5057,22 @@
       <c r="D23" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="108" t="s">
+      <c r="E23" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="G23" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="54"/>
-    </row>
-    <row r="24" s="98" customFormat="1" ht="60" spans="1:8">
-      <c r="A24" s="71">
+      <c r="G23" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="56"/>
+    </row>
+    <row r="24" s="100" customFormat="1" ht="60" spans="1:8">
+      <c r="A24" s="73">
         <v>4</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="70" t="s">
         <v>144</v>
       </c>
       <c r="C24" s="47" t="s">
@@ -5077,22 +5081,22 @@
       <c r="D24" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="108" t="s">
+      <c r="E24" s="109" t="s">
         <v>147</v>
       </c>
       <c r="F24" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="G24" s="108" t="s">
+      <c r="G24" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="54"/>
-    </row>
-    <row r="25" s="98" customFormat="1" spans="1:8">
-      <c r="A25" s="110">
+      <c r="H24" s="56"/>
+    </row>
+    <row r="25" s="100" customFormat="1" spans="1:8">
+      <c r="A25" s="111">
         <v>3</v>
       </c>
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="112" t="s">
         <v>148</v>
       </c>
       <c r="C25" s="48" t="s">
@@ -5101,42 +5105,42 @@
       <c r="D25" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="108" t="s">
+      <c r="E25" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F25" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="54"/>
-    </row>
-    <row r="26" s="98" customFormat="1" ht="45" spans="1:8">
+      <c r="G25" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="56"/>
+    </row>
+    <row r="26" s="100" customFormat="1" ht="45" spans="1:8">
       <c r="A26" s="48">
         <v>6</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="100" t="s">
+      <c r="C26" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="100" t="s">
+      <c r="D26" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="E26" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="100" t="s">
+      <c r="E26" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="54"/>
-    </row>
-    <row r="27" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="G26" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="56"/>
+    </row>
+    <row r="27" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A27" s="48">
         <v>7</v>
       </c>
@@ -5149,19 +5153,19 @@
       <c r="D27" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="108" t="s">
+      <c r="E27" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="G27" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="112"/>
-    </row>
-    <row r="28" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A28" s="110">
+      <c r="G27" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="113"/>
+    </row>
+    <row r="28" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A28" s="111">
         <v>8</v>
       </c>
       <c r="B28" s="48" t="s">
@@ -5173,19 +5177,19 @@
       <c r="D28" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="108" t="s">
+      <c r="E28" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="G28" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="112"/>
-    </row>
-    <row r="29" s="98" customFormat="1" ht="30" spans="1:8">
-      <c r="A29" s="71"/>
+      <c r="G28" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="113"/>
+    </row>
+    <row r="29" s="100" customFormat="1" ht="30" spans="1:8">
+      <c r="A29" s="73"/>
       <c r="B29" s="48" t="s">
         <v>82</v>
       </c>
@@ -5195,18 +5199,18 @@
       <c r="D29" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="108" t="s">
+      <c r="E29" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="112"/>
-    </row>
-    <row r="30" s="98" customFormat="1" ht="30" spans="1:8">
+      <c r="G29" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="113"/>
+    </row>
+    <row r="30" s="100" customFormat="1" ht="30" spans="1:8">
       <c r="A30" s="48">
         <v>9</v>
       </c>
@@ -5219,18 +5223,18 @@
       <c r="D30" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="108" t="s">
+      <c r="E30" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="112"/>
-    </row>
-    <row r="31" s="98" customFormat="1" ht="45" spans="1:8">
+      <c r="G30" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="113"/>
+    </row>
+    <row r="31" s="100" customFormat="1" ht="45" spans="1:8">
       <c r="A31" s="48">
         <v>10</v>
       </c>
@@ -5243,19 +5247,19 @@
       <c r="D31" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="108" t="s">
+      <c r="E31" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="G31" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="112"/>
-    </row>
-    <row r="32" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A32" s="110">
+      <c r="G31" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="113"/>
+    </row>
+    <row r="32" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A32" s="111">
         <v>11</v>
       </c>
       <c r="B32" s="48" t="s">
@@ -5267,130 +5271,130 @@
       <c r="D32" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="E32" s="108" t="s">
+      <c r="E32" s="109" t="s">
         <v>43</v>
       </c>
       <c r="F32" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="112"/>
-    </row>
-    <row r="33" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A33" s="71">
+      <c r="G32" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="113"/>
+    </row>
+    <row r="33" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A33" s="73">
         <v>12</v>
       </c>
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="113" t="s">
+      <c r="C33" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="113" t="s">
+      <c r="D33" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="E33" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="113" t="s">
+      <c r="E33" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="112"/>
-    </row>
-    <row r="34" s="98" customFormat="1" spans="1:8">
-      <c r="A34" s="114"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-    </row>
-    <row r="35" s="98" customFormat="1" spans="1:8">
-      <c r="A35" s="114"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-    </row>
-    <row r="36" s="98" customFormat="1" spans="1:8">
-      <c r="A36" s="119" t="s">
+      <c r="G33" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="113"/>
+    </row>
+    <row r="34" s="100" customFormat="1" spans="1:8">
+      <c r="A34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
+    </row>
+    <row r="35" s="100" customFormat="1" spans="1:8">
+      <c r="A35" s="115"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+    </row>
+    <row r="36" s="100" customFormat="1" spans="1:8">
+      <c r="A36" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="120"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-    </row>
-    <row r="37" s="98" customFormat="1" ht="27" customHeight="1" spans="1:8">
-      <c r="A37" s="121">
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+    </row>
+    <row r="37" s="100" customFormat="1" ht="27" customHeight="1" spans="1:8">
+      <c r="A37" s="122">
         <v>13</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="106" t="s">
+      <c r="C37" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="106" t="s">
+      <c r="D37" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="106"/>
-    </row>
-    <row r="38" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A38" s="121">
+      <c r="E37" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="107"/>
+    </row>
+    <row r="38" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A38" s="122">
         <v>14</v>
       </c>
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="106" t="s">
+      <c r="C38" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="106" t="s">
+      <c r="D38" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-    </row>
-    <row r="39" s="98" customFormat="1" ht="60" spans="1:8">
-      <c r="A39" s="121">
+      <c r="E38" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+    </row>
+    <row r="39" s="100" customFormat="1" ht="60" spans="1:8">
+      <c r="A39" s="122">
         <v>16</v>
       </c>
-      <c r="B39" s="123" t="s">
+      <c r="B39" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="124" t="s">
+      <c r="C39" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-    </row>
-    <row r="40" s="98" customFormat="1" spans="1:8">
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+    </row>
+    <row r="40" s="100" customFormat="1" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -5400,202 +5404,202 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" s="98" customFormat="1" spans="1:8">
-      <c r="A41" s="125"/>
-      <c r="B41" s="125"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="125"/>
-    </row>
-    <row r="42" s="98" customFormat="1" ht="45" spans="1:8">
-      <c r="A42" s="126" t="s">
+    <row r="41" s="100" customFormat="1" spans="1:8">
+      <c r="A41" s="126"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
+    </row>
+    <row r="42" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="A42" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="126" t="s">
+      <c r="B42" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="126" t="s">
+      <c r="C42" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="127" t="s">
+      <c r="D42" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="128" t="s">
+      <c r="E42" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128" t="s">
+      <c r="F42" s="129"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="129" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" s="98" customFormat="1" ht="45" spans="1:9">
-      <c r="A43" s="92">
+    <row r="43" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="A43" s="94">
         <v>1</v>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="92" t="s">
+      <c r="C43" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="92" t="s">
+      <c r="D43" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="122"/>
-      <c r="G43" s="122"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="117"/>
-    </row>
-    <row r="44" s="98" customFormat="1" ht="45" spans="1:9">
-      <c r="A44" s="52"/>
-      <c r="B44" s="95" t="s">
+      <c r="E43" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="123"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="118"/>
+    </row>
+    <row r="44" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="A44" s="54"/>
+      <c r="B44" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="52" t="s">
+      <c r="D44" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="122"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="117"/>
-    </row>
-    <row r="45" s="98" customFormat="1" ht="45" spans="1:9">
-      <c r="A45" s="52"/>
-      <c r="B45" s="95" t="s">
+      <c r="E44" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="118"/>
+    </row>
+    <row r="45" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="A45" s="54"/>
+      <c r="B45" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="122"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="117"/>
-    </row>
-    <row r="46" s="98" customFormat="1" ht="45" spans="1:9">
-      <c r="A46" s="52">
+      <c r="E45" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="118"/>
+    </row>
+    <row r="46" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="A46" s="54">
         <v>2</v>
       </c>
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="D46" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="117"/>
-    </row>
-    <row r="47" s="98" customFormat="1" ht="45" spans="1:9">
-      <c r="A47" s="52"/>
-      <c r="B47" s="95" t="s">
+      <c r="E46" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="118"/>
+    </row>
+    <row r="47" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="A47" s="54"/>
+      <c r="B47" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="E47" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="117"/>
-    </row>
-    <row r="48" s="98" customFormat="1" ht="45" spans="1:9">
-      <c r="A48" s="52"/>
-      <c r="B48" s="95" t="s">
+      <c r="E47" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="118"/>
+    </row>
+    <row r="48" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="A48" s="54"/>
+      <c r="B48" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="117"/>
-    </row>
-    <row r="49" s="98" customFormat="1" ht="45" spans="1:9">
-      <c r="A49" s="95">
+      <c r="E48" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="118"/>
+    </row>
+    <row r="49" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="A49" s="97">
         <v>3</v>
       </c>
-      <c r="B49" s="129" t="s">
+      <c r="B49" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="C49" s="129" t="s">
+      <c r="C49" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="D49" s="130"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="112"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="117"/>
-    </row>
-    <row r="50" s="98" customFormat="1" ht="45" spans="1:9">
-      <c r="A50" s="95"/>
-      <c r="B50" s="129" t="s">
+      <c r="D49" s="131"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="118"/>
+    </row>
+    <row r="50" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="A50" s="97"/>
+      <c r="B50" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="C50" s="131" t="s">
+      <c r="C50" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="130"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="117"/>
-    </row>
-    <row r="51" s="98" customFormat="1" ht="45" spans="1:9">
-      <c r="A51" s="95"/>
-      <c r="B51" s="129" t="s">
+      <c r="D50" s="131"/>
+      <c r="E50" s="113"/>
+      <c r="F50" s="113"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="113"/>
+      <c r="I50" s="118"/>
+    </row>
+    <row r="51" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="A51" s="97"/>
+      <c r="B51" s="130" t="s">
         <v>179</v>
       </c>
-      <c r="C51" s="131" t="s">
+      <c r="C51" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="130"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="112"/>
-      <c r="G51" s="112"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="117"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5616,8 +5620,8 @@
   <sheetPr/>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5676,35 +5680,35 @@
       <c r="B3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" s="44" customFormat="1" spans="1:8">
       <c r="A6" s="45" t="s">
@@ -5713,85 +5717,83 @@
       <c r="B6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" s="44" customFormat="1" ht="75" spans="1:8">
       <c r="A7" s="46">
         <v>1</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="53" t="s">
+      <c r="C7" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" s="44" customFormat="1" ht="30" spans="1:8">
       <c r="A8" s="46">
         <v>2</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
     </row>
     <row r="9" s="44" customFormat="1" spans="1:9">
       <c r="A9" s="46">
         <v>3</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
     </row>
     <row r="10" s="44" customFormat="1" spans="1:9">
       <c r="A10" s="46">
         <v>4</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" s="44" customFormat="1" spans="1:9">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
     </row>
     <row r="12" s="44" customFormat="1" spans="1:9">
       <c r="A12" s="45" t="s">
@@ -5800,150 +5802,150 @@
       <c r="B12" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" s="44" customFormat="1" spans="1:9">
-      <c r="A13" s="56">
+      <c r="A13" s="58">
         <v>1</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
     </row>
     <row r="14" s="44" customFormat="1" spans="1:9">
-      <c r="A14" s="56">
+      <c r="A14" s="58">
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
     </row>
     <row r="15" s="44" customFormat="1" spans="1:9">
-      <c r="A15" s="56">
+      <c r="A15" s="58">
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" s="44" customFormat="1" spans="1:9">
-      <c r="A16" s="56">
+      <c r="A16" s="58">
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
     </row>
     <row r="17" s="44" customFormat="1" spans="1:9">
-      <c r="A17" s="56">
+      <c r="A17" s="58">
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" s="44" customFormat="1" spans="1:9">
-      <c r="A18" s="56">
+      <c r="A18" s="58">
         <v>6</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:9">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
     </row>
     <row r="20" s="44" customFormat="1" spans="9:9">
-      <c r="I20" s="97"/>
+      <c r="I20" s="99"/>
     </row>
     <row r="21" s="44" customFormat="1" spans="1:9">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="97"/>
+      <c r="I21" s="99"/>
     </row>
     <row r="22" s="44" customFormat="1" ht="45" spans="1:9">
-      <c r="A22" s="62">
+      <c r="A22" s="64">
         <v>1</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="65" t="s">
         <v>186</v>
       </c>
       <c r="C22" s="47" t="s">
@@ -5952,48 +5954,48 @@
       <c r="D22" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="G22" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="65"/>
-      <c r="I22" s="97"/>
+      <c r="G22" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="67"/>
+      <c r="I22" s="99"/>
     </row>
     <row r="23" s="44" customFormat="1" spans="1:9">
-      <c r="A23" s="62">
+      <c r="A23" s="64">
         <v>2</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="E23" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="62" t="s">
+      <c r="E23" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="G23" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="65"/>
-      <c r="I23" s="97"/>
+      <c r="G23" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="67"/>
+      <c r="I23" s="99"/>
     </row>
     <row r="24" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A24" s="67">
+      <c r="A24" s="69">
         <v>3</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="70" t="s">
         <v>192</v>
       </c>
       <c r="C24" s="47" t="s">
@@ -6002,20 +6004,20 @@
       <c r="D24" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="66" t="s">
         <v>43</v>
       </c>
       <c r="H24" s="49"/>
     </row>
     <row r="25" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70" t="s">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72" t="s">
         <v>195</v>
       </c>
       <c r="C25" s="47" t="s">
@@ -6024,22 +6026,22 @@
       <c r="D25" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F25" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="66" t="s">
         <v>43</v>
       </c>
       <c r="H25" s="49"/>
     </row>
     <row r="26" s="44" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
-      <c r="A26" s="71">
+      <c r="A26" s="73">
         <v>4</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="70" t="s">
         <v>198</v>
       </c>
       <c r="C26" s="47" t="s">
@@ -6048,19 +6050,19 @@
       <c r="D26" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="G26" s="64" t="s">
+      <c r="G26" s="66" t="s">
         <v>43</v>
       </c>
       <c r="H26" s="49"/>
     </row>
     <row r="27" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A27" s="67">
+      <c r="A27" s="69">
         <v>5</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -6072,19 +6074,19 @@
       <c r="D27" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="G27" s="64" t="s">
+      <c r="G27" s="66" t="s">
         <v>43</v>
       </c>
       <c r="H27" s="49"/>
     </row>
     <row r="28" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A28" s="72"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="48" t="s">
         <v>203</v>
       </c>
@@ -6094,19 +6096,19 @@
       <c r="D28" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="66" t="s">
         <v>43</v>
       </c>
       <c r="H28" s="49"/>
     </row>
     <row r="29" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A29" s="67">
+      <c r="A29" s="69">
         <v>8</v>
       </c>
       <c r="B29" s="48" t="s">
@@ -6118,19 +6120,19 @@
       <c r="D29" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="G29" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="73"/>
+      <c r="G29" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="75"/>
     </row>
     <row r="30" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A30" s="72"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="48" t="s">
         <v>205</v>
       </c>
@@ -6140,19 +6142,19 @@
       <c r="D30" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="73"/>
+      <c r="G30" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="75"/>
     </row>
     <row r="31" s="44" customFormat="1" ht="60" spans="1:8">
-      <c r="A31" s="67">
+      <c r="A31" s="69">
         <v>9</v>
       </c>
       <c r="B31" s="48" t="s">
@@ -6164,19 +6166,19 @@
       <c r="D31" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="G31" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="73"/>
+      <c r="G31" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="75"/>
     </row>
     <row r="32" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A32" s="72"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="48" t="s">
         <v>71</v>
       </c>
@@ -6186,19 +6188,19 @@
       <c r="D32" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F32" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="G32" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="73"/>
+      <c r="G32" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="75"/>
     </row>
     <row r="33" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A33" s="72">
+      <c r="A33" s="74">
         <v>10</v>
       </c>
       <c r="B33" s="48" t="s">
@@ -6210,19 +6212,19 @@
       <c r="D33" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F33" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="G33" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="73"/>
+      <c r="G33" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="75"/>
     </row>
     <row r="34" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A34" s="72">
+      <c r="A34" s="74">
         <v>11</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -6234,19 +6236,19 @@
       <c r="D34" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="G34" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="73"/>
+      <c r="G34" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="75"/>
     </row>
     <row r="35" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A35" s="72">
+      <c r="A35" s="74">
         <v>12</v>
       </c>
       <c r="B35" s="47" t="s">
@@ -6258,19 +6260,19 @@
       <c r="D35" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="G35" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="73"/>
+      <c r="G35" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="75"/>
     </row>
     <row r="36" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A36" s="72">
+      <c r="A36" s="74">
         <v>13</v>
       </c>
       <c r="B36" s="47" t="s">
@@ -6282,19 +6284,19 @@
       <c r="D36" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="E36" s="64" t="s">
+      <c r="E36" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F36" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="G36" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="73"/>
+      <c r="G36" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="75"/>
     </row>
     <row r="37" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A37" s="72">
+      <c r="A37" s="74">
         <v>14</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -6306,19 +6308,19 @@
       <c r="D37" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="E37" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F37" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="G37" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="73"/>
+      <c r="G37" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="75"/>
     </row>
     <row r="38" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A38" s="72">
+      <c r="A38" s="74">
         <v>15</v>
       </c>
       <c r="B38" s="48" t="s">
@@ -6330,19 +6332,19 @@
       <c r="D38" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F38" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G38" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="73"/>
+      <c r="G38" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="75"/>
     </row>
     <row r="39" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A39" s="72">
+      <c r="A39" s="74">
         <v>16</v>
       </c>
       <c r="B39" s="48" t="s">
@@ -6354,19 +6356,19 @@
       <c r="D39" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="E39" s="64" t="s">
+      <c r="E39" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F39" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="G39" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="73"/>
+      <c r="G39" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="75"/>
     </row>
     <row r="40" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A40" s="72">
+      <c r="A40" s="74">
         <v>17</v>
       </c>
       <c r="B40" s="48" t="s">
@@ -6378,19 +6380,19 @@
       <c r="D40" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G40" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="73"/>
+      <c r="G40" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="75"/>
     </row>
     <row r="41" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A41" s="72">
+      <c r="A41" s="74">
         <v>18</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -6402,19 +6404,19 @@
       <c r="D41" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="E41" s="64" t="s">
+      <c r="E41" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F41" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="G41" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="73"/>
+      <c r="G41" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="75"/>
     </row>
     <row r="42" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A42" s="72">
+      <c r="A42" s="74">
         <v>19</v>
       </c>
       <c r="B42" s="48" t="s">
@@ -6426,130 +6428,130 @@
       <c r="D42" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="E42" s="64" t="s">
+      <c r="E42" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F42" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G42" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="73"/>
+      <c r="G42" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="75"/>
     </row>
     <row r="43" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A43" s="72"/>
-      <c r="B43" s="74" t="s">
+      <c r="A43" s="74"/>
+      <c r="B43" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="75" t="s">
+      <c r="E43" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="G43" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="56"/>
+      <c r="G43" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="58"/>
     </row>
     <row r="44" s="44" customFormat="1" spans="1:8">
-      <c r="A44" s="76"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
+      <c r="A44" s="78"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
     </row>
     <row r="45" s="44" customFormat="1" spans="1:8">
-      <c r="A45" s="76"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
+      <c r="A45" s="78"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
     </row>
     <row r="46" s="44" customFormat="1" spans="1:8">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
     </row>
     <row r="47" s="44" customFormat="1" ht="75" spans="1:8">
-      <c r="A47" s="83">
+      <c r="A47" s="85">
         <v>21</v>
       </c>
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="52"/>
+      <c r="E47" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="54"/>
     </row>
     <row r="48" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A48" s="83">
+      <c r="A48" s="85">
         <v>22</v>
       </c>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="E48" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
+      <c r="E48" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
     </row>
     <row r="49" s="44" customFormat="1" ht="75" spans="1:8">
-      <c r="A49" s="86">
+      <c r="A49" s="88">
         <v>24</v>
       </c>
-      <c r="B49" s="87" t="s">
+      <c r="B49" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="E49" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
+      <c r="E49" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
     </row>
     <row r="50" s="44" customFormat="1" spans="1:8">
       <c r="A50" s="1"/>
@@ -6562,97 +6564,97 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" s="44" customFormat="1" spans="1:8">
-      <c r="A51" s="88" t="s">
+      <c r="A51" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="88" t="s">
+      <c r="B51" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="88" t="s">
+      <c r="C51" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="88" t="s">
+      <c r="D51" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="E51" s="89" t="s">
+      <c r="E51" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89" t="s">
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="52" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A52" s="90">
+      <c r="A52" s="92">
         <v>25</v>
       </c>
-      <c r="B52" s="91" t="s">
+      <c r="B52" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="92" t="s">
+      <c r="C52" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="92" t="s">
+      <c r="D52" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="94"/>
+      <c r="E52" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="96"/>
     </row>
     <row r="53" s="44" customFormat="1" ht="45" spans="1:8">
       <c r="A53" s="20"/>
-      <c r="B53" s="95" t="s">
+      <c r="B53" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
+      <c r="E53" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
       <c r="H53" s="7"/>
     </row>
     <row r="54" s="44" customFormat="1" ht="30" spans="1:8">
       <c r="A54" s="20"/>
-      <c r="B54" s="95" t="s">
+      <c r="B54" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="C54" s="52" t="s">
+      <c r="C54" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
+      <c r="E54" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="98"/>
+      <c r="G54" s="98"/>
       <c r="H54" s="7"/>
     </row>
     <row r="55" s="44" customFormat="1" ht="45" spans="1:8">
       <c r="A55" s="20">
         <v>26</v>
       </c>
-      <c r="B55" s="95" t="s">
+      <c r="B55" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="C55" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="E55" s="64" t="s">
+      <c r="E55" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F55" s="7"/>
@@ -6661,16 +6663,16 @@
     </row>
     <row r="56" s="44" customFormat="1" ht="45" spans="1:8">
       <c r="A56" s="20"/>
-      <c r="B56" s="95" t="s">
+      <c r="B56" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="52" t="s">
+      <c r="C56" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="64" t="s">
+      <c r="E56" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F56" s="7"/>
@@ -6679,16 +6681,16 @@
     </row>
     <row r="57" s="44" customFormat="1" ht="30" spans="1:8">
       <c r="A57" s="20"/>
-      <c r="B57" s="95" t="s">
+      <c r="B57" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C57" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="52" t="s">
+      <c r="D57" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="E57" s="64" t="s">
+      <c r="E57" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F57" s="7"/>
@@ -6699,57 +6701,57 @@
       <c r="A58" s="20">
         <v>27</v>
       </c>
-      <c r="B58" s="95" t="s">
+      <c r="B58" s="97" t="s">
         <v>243</v>
       </c>
-      <c r="C58" s="52" t="s">
+      <c r="C58" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="E58" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="73"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
+      <c r="E58" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
     </row>
     <row r="59" s="44" customFormat="1" ht="45" spans="1:8">
       <c r="A59" s="20"/>
-      <c r="B59" s="95" t="s">
+      <c r="B59" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="C59" s="52" t="s">
+      <c r="C59" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="52" t="s">
+      <c r="D59" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="E59" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
+      <c r="E59" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
     </row>
     <row r="60" s="44" customFormat="1" ht="30" spans="1:8">
       <c r="A60" s="20"/>
-      <c r="B60" s="95" t="s">
+      <c r="B60" s="97" t="s">
         <v>247</v>
       </c>
-      <c r="C60" s="52" t="s">
+      <c r="C60" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="52" t="s">
+      <c r="D60" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
+      <c r="E60" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/WSC/Test Report/SLCM/WSC SLCM_Academics_Attendance & Leave Application.xlsx
+++ b/WSC/Test Report/SLCM/WSC SLCM_Academics_Attendance & Leave Application.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="387">
   <si>
     <t>Contents</t>
   </si>
@@ -2705,7 +2705,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2895,9 +2895,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2965,6 +2962,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3001,9 +3001,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3066,9 +3063,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3457,41 +3451,41 @@
   </cols>
   <sheetData>
     <row r="2" s="25" customFormat="1" ht="21" spans="1:6">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
     </row>
     <row r="4" s="25" customFormat="1" ht="150" spans="1:13">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="146" t="s">
+      <c r="D4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="145" t="s">
+      <c r="E4" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="145" t="s">
+      <c r="F4" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
     </row>
     <row r="5" s="25" customFormat="1" spans="2:13">
       <c r="B5" s="29"/>
@@ -3525,23 +3519,23 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="100" customWidth="1"/>
-    <col min="2" max="2" width="47.4285714285714" style="100" customWidth="1"/>
-    <col min="3" max="3" width="60" style="100" customWidth="1"/>
-    <col min="4" max="4" width="57.5714285714286" style="100" customWidth="1"/>
-    <col min="5" max="5" width="22.5714285714286" style="100" customWidth="1"/>
-    <col min="6" max="6" width="43.1428571428571" style="100" customWidth="1"/>
-    <col min="7" max="7" width="23.4285714285714" style="100" customWidth="1"/>
-    <col min="8" max="8" width="10.2857142857143" style="100" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="100"/>
+    <col min="1" max="1" width="18.7142857142857" style="99" customWidth="1"/>
+    <col min="2" max="2" width="47.4285714285714" style="99" customWidth="1"/>
+    <col min="3" max="3" width="60" style="99" customWidth="1"/>
+    <col min="4" max="4" width="57.5714285714286" style="99" customWidth="1"/>
+    <col min="5" max="5" width="22.5714285714286" style="99" customWidth="1"/>
+    <col min="6" max="6" width="43.1428571428571" style="99" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="99" customWidth="1"/>
+    <col min="8" max="8" width="10.2857142857143" style="99" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" s="100" customFormat="1" ht="52" customHeight="1" spans="1:9">
+    <row r="1" s="99" customFormat="1" ht="52" customHeight="1" spans="1:9">
       <c r="A1" s="52" t="s">
         <v>7</v>
       </c>
@@ -3560,7 +3554,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
     </row>
-    <row r="2" s="100" customFormat="1" spans="1:9">
+    <row r="2" s="99" customFormat="1" spans="1:9">
       <c r="A2" s="52" t="s">
         <v>11</v>
       </c>
@@ -3581,7 +3575,7 @@
       <c r="A3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="100" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="101"/>
@@ -3603,7 +3597,7 @@
       <c r="H4" s="101"/>
       <c r="I4" s="101"/>
     </row>
-    <row r="5" s="100" customFormat="1" spans="1:8">
+    <row r="5" s="99" customFormat="1" spans="1:8">
       <c r="A5" s="52" t="s">
         <v>16</v>
       </c>
@@ -3618,7 +3612,7 @@
       <c r="G5" s="102"/>
       <c r="H5" s="102"/>
     </row>
-    <row r="6" s="100" customFormat="1" ht="75" spans="1:8">
+    <row r="6" s="99" customFormat="1" ht="75" spans="1:8">
       <c r="A6" s="48">
         <v>1</v>
       </c>
@@ -3633,7 +3627,7 @@
       <c r="G6" s="102"/>
       <c r="H6" s="102"/>
     </row>
-    <row r="7" s="100" customFormat="1" ht="30" spans="1:8">
+    <row r="7" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A7" s="48">
         <v>2</v>
       </c>
@@ -3641,13 +3635,12 @@
         <v>21</v>
       </c>
       <c r="C7" s="102"/>
-      <c r="D7" s="100"/>
       <c r="E7" s="102"/>
       <c r="F7" s="102"/>
       <c r="G7" s="102"/>
       <c r="H7" s="102"/>
     </row>
-    <row r="8" s="100" customFormat="1" spans="1:9">
+    <row r="8" s="99" customFormat="1" spans="1:9">
       <c r="A8" s="48">
         <v>3</v>
       </c>
@@ -3655,14 +3648,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="101"/>
-      <c r="D8" s="100"/>
       <c r="E8" s="101"/>
       <c r="F8" s="101"/>
       <c r="G8" s="101"/>
       <c r="H8" s="101"/>
       <c r="I8" s="101"/>
     </row>
-    <row r="9" s="100" customFormat="1" spans="1:9">
+    <row r="9" s="99" customFormat="1" spans="1:9">
       <c r="A9" s="48">
         <v>4</v>
       </c>
@@ -3677,7 +3669,7 @@
       <c r="H9" s="102"/>
       <c r="I9" s="102"/>
     </row>
-    <row r="10" s="100" customFormat="1" spans="1:9">
+    <row r="10" s="99" customFormat="1" spans="1:9">
       <c r="A10" s="48">
         <v>5</v>
       </c>
@@ -3692,7 +3684,7 @@
       <c r="H10" s="102"/>
       <c r="I10" s="102"/>
     </row>
-    <row r="11" s="100" customFormat="1" spans="1:9">
+    <row r="11" s="99" customFormat="1" spans="1:9">
       <c r="A11" s="101"/>
       <c r="B11" s="101"/>
       <c r="C11" s="102"/>
@@ -3703,7 +3695,7 @@
       <c r="H11" s="102"/>
       <c r="I11" s="102"/>
     </row>
-    <row r="12" s="100" customFormat="1" spans="1:9">
+    <row r="12" s="99" customFormat="1" spans="1:9">
       <c r="A12" s="52" t="s">
         <v>16</v>
       </c>
@@ -3718,7 +3710,7 @@
       <c r="H12" s="102"/>
       <c r="I12" s="102"/>
     </row>
-    <row r="13" s="100" customFormat="1" spans="1:9">
+    <row r="13" s="99" customFormat="1" spans="1:9">
       <c r="A13" s="105">
         <v>1</v>
       </c>
@@ -3733,8 +3725,8 @@
       <c r="H13" s="102"/>
       <c r="I13" s="102"/>
     </row>
-    <row r="14" s="100" customFormat="1" spans="1:9">
-      <c r="A14" s="113">
+    <row r="14" s="99" customFormat="1" spans="1:9">
+      <c r="A14" s="100">
         <v>2</v>
       </c>
       <c r="B14" s="102" t="s">
@@ -3748,8 +3740,8 @@
       <c r="H14" s="102"/>
       <c r="I14" s="102"/>
     </row>
-    <row r="15" s="100" customFormat="1" spans="1:9">
-      <c r="A15" s="113">
+    <row r="15" s="99" customFormat="1" spans="1:9">
+      <c r="A15" s="100">
         <v>3</v>
       </c>
       <c r="B15" s="107" t="s">
@@ -3763,8 +3755,8 @@
       <c r="H15" s="101"/>
       <c r="I15" s="101"/>
     </row>
-    <row r="16" s="100" customFormat="1" spans="1:9">
-      <c r="A16" s="113">
+    <row r="16" s="99" customFormat="1" spans="1:9">
+      <c r="A16" s="100">
         <v>4</v>
       </c>
       <c r="B16" s="107" t="s">
@@ -3778,8 +3770,8 @@
       <c r="H16" s="101"/>
       <c r="I16" s="101"/>
     </row>
-    <row r="17" s="100" customFormat="1" spans="1:9">
-      <c r="A17" s="113">
+    <row r="17" s="99" customFormat="1" spans="1:9">
+      <c r="A17" s="100">
         <v>5</v>
       </c>
       <c r="B17" s="107" t="s">
@@ -3793,8 +3785,8 @@
       <c r="H17" s="101"/>
       <c r="I17" s="101"/>
     </row>
-    <row r="18" s="100" customFormat="1" ht="30" spans="1:9">
-      <c r="A18" s="113">
+    <row r="18" s="99" customFormat="1" ht="30" spans="1:9">
+      <c r="A18" s="100">
         <v>6</v>
       </c>
       <c r="B18" s="107" t="s">
@@ -3808,8 +3800,8 @@
       <c r="H18" s="101"/>
       <c r="I18" s="101"/>
     </row>
-    <row r="19" s="100" customFormat="1" spans="1:9">
-      <c r="A19" s="113">
+    <row r="19" s="99" customFormat="1" spans="1:9">
+      <c r="A19" s="100">
         <v>7</v>
       </c>
       <c r="B19" s="107" t="s">
@@ -3823,41 +3815,41 @@
       <c r="H19" s="101"/>
       <c r="I19" s="101"/>
     </row>
-    <row r="20" s="126" customFormat="1" spans="1:2">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
-    </row>
-    <row r="21" s="100" customFormat="1" spans="9:9">
-      <c r="I21" s="133"/>
-    </row>
-    <row r="22" s="100" customFormat="1" ht="30" spans="1:9">
-      <c r="A22" s="136" t="s">
+    <row r="20" s="125" customFormat="1" spans="1:2">
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
+    </row>
+    <row r="21" s="99" customFormat="1" spans="9:9">
+      <c r="I21" s="132"/>
+    </row>
+    <row r="22" s="99" customFormat="1" ht="30" spans="1:9">
+      <c r="A22" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="136" t="s">
+      <c r="C22" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="136" t="s">
+      <c r="D22" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="136" t="s">
+      <c r="F22" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="137" t="s">
+      <c r="G22" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="137" t="s">
+      <c r="H22" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="133"/>
-    </row>
-    <row r="23" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="I22" s="132"/>
+    </row>
+    <row r="23" s="99" customFormat="1" ht="45" spans="1:9">
       <c r="A23" s="47">
         <v>1</v>
       </c>
@@ -3880,9 +3872,9 @@
         <v>43</v>
       </c>
       <c r="H23" s="110"/>
-      <c r="I23" s="133"/>
-    </row>
-    <row r="24" s="100" customFormat="1" ht="30" spans="1:8">
+      <c r="I23" s="132"/>
+    </row>
+    <row r="24" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A24" s="48">
         <v>2</v>
       </c>
@@ -3906,7 +3898,7 @@
       </c>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" s="100" customFormat="1" ht="30" spans="1:8">
+    <row r="25" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A25" s="48">
         <v>3</v>
       </c>
@@ -3930,7 +3922,7 @@
       </c>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" s="100" customFormat="1" ht="30" spans="1:8">
+    <row r="26" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A26" s="48"/>
       <c r="B26" s="68" t="s">
         <v>50</v>
@@ -3952,7 +3944,7 @@
       </c>
       <c r="H26" s="56"/>
     </row>
-    <row r="27" s="100" customFormat="1" ht="30" spans="1:8">
+    <row r="27" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A27" s="48">
         <v>4</v>
       </c>
@@ -3976,7 +3968,7 @@
       </c>
       <c r="H27" s="56"/>
     </row>
-    <row r="28" s="100" customFormat="1" ht="60" spans="1:8">
+    <row r="28" s="99" customFormat="1" ht="60" spans="1:8">
       <c r="A28" s="48">
         <v>5</v>
       </c>
@@ -4000,7 +3992,7 @@
       </c>
       <c r="H28" s="56"/>
     </row>
-    <row r="29" s="100" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
+    <row r="29" s="99" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
       <c r="A29" s="48">
         <v>6</v>
       </c>
@@ -4024,7 +4016,7 @@
       </c>
       <c r="H29" s="56"/>
     </row>
-    <row r="30" s="100" customFormat="1" ht="30" spans="1:8">
+    <row r="30" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A30" s="48">
         <v>7</v>
       </c>
@@ -4048,7 +4040,7 @@
       </c>
       <c r="H30" s="56"/>
     </row>
-    <row r="31" s="100" customFormat="1" ht="30" spans="1:8">
+    <row r="31" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A31" s="48">
         <v>8</v>
       </c>
@@ -4072,7 +4064,7 @@
       </c>
       <c r="H31" s="56"/>
     </row>
-    <row r="32" s="100" customFormat="1" ht="30" spans="1:8">
+    <row r="32" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A32" s="48"/>
       <c r="B32" s="48" t="s">
         <v>68</v>
@@ -4094,7 +4086,7 @@
       </c>
       <c r="H32" s="56"/>
     </row>
-    <row r="33" s="100" customFormat="1" ht="45" spans="1:8">
+    <row r="33" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A33" s="48">
         <v>9</v>
       </c>
@@ -4116,9 +4108,9 @@
       <c r="G33" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="113"/>
-    </row>
-    <row r="34" s="100" customFormat="1" ht="30" spans="1:8">
+      <c r="H33" s="100"/>
+    </row>
+    <row r="34" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A34" s="48"/>
       <c r="B34" s="48" t="s">
         <v>73</v>
@@ -4138,9 +4130,9 @@
       <c r="G34" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="113"/>
-    </row>
-    <row r="35" s="100" customFormat="1" ht="30" spans="1:8">
+      <c r="H34" s="100"/>
+    </row>
+    <row r="35" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A35" s="48"/>
       <c r="B35" s="48" t="s">
         <v>76</v>
@@ -4160,9 +4152,9 @@
       <c r="G35" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="113"/>
-    </row>
-    <row r="36" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="H35" s="100"/>
+    </row>
+    <row r="36" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A36" s="48">
         <v>10</v>
       </c>
@@ -4184,9 +4176,9 @@
       <c r="G36" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="113"/>
-    </row>
-    <row r="37" s="100" customFormat="1" ht="30" spans="1:8">
+      <c r="H36" s="100"/>
+    </row>
+    <row r="37" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A37" s="48">
         <v>11</v>
       </c>
@@ -4208,9 +4200,9 @@
       <c r="G37" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="113"/>
-    </row>
-    <row r="38" s="100" customFormat="1" ht="30" spans="1:8">
+      <c r="H37" s="100"/>
+    </row>
+    <row r="38" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A38" s="48">
         <v>12</v>
       </c>
@@ -4232,9 +4224,9 @@
       <c r="G38" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="113"/>
-    </row>
-    <row r="39" s="100" customFormat="1" ht="30" spans="1:8">
+      <c r="H38" s="100"/>
+    </row>
+    <row r="39" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A39" s="48">
         <v>13</v>
       </c>
@@ -4256,9 +4248,9 @@
       <c r="G39" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="113"/>
-    </row>
-    <row r="40" s="100" customFormat="1" ht="30" spans="1:8">
+      <c r="H39" s="100"/>
+    </row>
+    <row r="40" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A40" s="48">
         <v>14</v>
       </c>
@@ -4280,69 +4272,69 @@
       <c r="G40" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="113"/>
-    </row>
-    <row r="41" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="H40" s="100"/>
+    </row>
+    <row r="41" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A41" s="48">
         <v>15</v>
       </c>
-      <c r="B41" s="138" t="s">
+      <c r="B41" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="138" t="s">
+      <c r="C41" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="138" t="s">
+      <c r="D41" s="136" t="s">
         <v>96</v>
       </c>
       <c r="E41" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="138" t="s">
+      <c r="F41" s="136" t="s">
         <v>96</v>
       </c>
       <c r="G41" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="113"/>
-    </row>
-    <row r="42" s="100" customFormat="1" spans="1:8">
+      <c r="H41" s="100"/>
+    </row>
+    <row r="42" s="99" customFormat="1" spans="1:8">
       <c r="A42" s="48"/>
       <c r="B42" s="47"/>
       <c r="C42" s="48"/>
       <c r="D42" s="56"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-    </row>
-    <row r="43" s="100" customFormat="1" spans="1:8">
-      <c r="A43" s="116"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
-    </row>
-    <row r="44" s="100" customFormat="1" spans="1:8">
-      <c r="A44" s="120" t="s">
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+    </row>
+    <row r="43" s="99" customFormat="1" spans="1:8">
+      <c r="A43" s="115"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+    </row>
+    <row r="44" s="99" customFormat="1" spans="1:8">
+      <c r="A44" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-    </row>
-    <row r="45" s="100" customFormat="1" ht="60" spans="1:8">
-      <c r="A45" s="122">
+      <c r="B44" s="120"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+    </row>
+    <row r="45" s="99" customFormat="1" ht="60" spans="1:8">
+      <c r="A45" s="121">
         <v>14</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="85" t="s">
         <v>98</v>
       </c>
       <c r="C45" s="107" t="s">
@@ -4354,15 +4346,15 @@
       <c r="E45" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
       <c r="H45" s="107"/>
     </row>
-    <row r="46" s="100" customFormat="1" ht="30" spans="1:8">
-      <c r="A46" s="122">
+    <row r="46" s="99" customFormat="1" ht="30" spans="1:8">
+      <c r="A46" s="121">
         <v>15</v>
       </c>
-      <c r="B46" s="86" t="s">
+      <c r="B46" s="85" t="s">
         <v>100</v>
       </c>
       <c r="C46" s="107" t="s">
@@ -4374,15 +4366,15 @@
       <c r="E46" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="123"/>
-      <c r="G46" s="123"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
       <c r="H46" s="107"/>
     </row>
-    <row r="47" s="100" customFormat="1" ht="45" spans="1:8">
-      <c r="A47" s="122">
+    <row r="47" s="99" customFormat="1" ht="45" spans="1:8">
+      <c r="A47" s="121">
         <v>17</v>
       </c>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="85" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="107" t="s">
@@ -4394,79 +4386,79 @@
       <c r="E47" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="123"/>
-      <c r="G47" s="123"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="122"/>
       <c r="H47" s="107"/>
     </row>
-    <row r="48" s="100" customFormat="1" ht="45" spans="1:8">
-      <c r="A48" s="122">
+    <row r="48" s="99" customFormat="1" ht="45" spans="1:8">
+      <c r="A48" s="121">
         <v>18</v>
       </c>
-      <c r="B48" s="124" t="s">
+      <c r="B48" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="132" t="s">
+      <c r="C48" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
       <c r="H48" s="54"/>
     </row>
-    <row r="49" s="100" customFormat="1" spans="1:8">
-      <c r="A49" s="126"/>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="126"/>
-    </row>
-    <row r="50" s="100" customFormat="1" ht="30" spans="1:8">
-      <c r="A50" s="127" t="s">
+    <row r="49" s="99" customFormat="1" spans="1:8">
+      <c r="A49" s="125"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="125"/>
+    </row>
+    <row r="50" s="99" customFormat="1" ht="30" spans="1:8">
+      <c r="A50" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="127" t="s">
+      <c r="B50" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="127" t="s">
+      <c r="C50" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="127" t="s">
+      <c r="D50" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="139" t="s">
+      <c r="E50" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="139" t="s">
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" s="100" customFormat="1" ht="45" spans="1:8">
-      <c r="A51" s="94">
+    <row r="51" s="99" customFormat="1" ht="45" spans="1:8">
+      <c r="A51" s="93">
         <v>1</v>
       </c>
-      <c r="B51" s="94" t="s">
+      <c r="B51" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="94" t="s">
+      <c r="C51" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="94" t="s">
+      <c r="D51" s="93" t="s">
         <v>110</v>
       </c>
       <c r="E51" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="140"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="140"/>
-    </row>
-    <row r="52" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="138"/>
+    </row>
+    <row r="52" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A52" s="54"/>
       <c r="B52" s="54" t="s">
         <v>111</v>
@@ -4484,7 +4476,7 @@
       <c r="G52" s="107"/>
       <c r="H52" s="107"/>
     </row>
-    <row r="53" s="100" customFormat="1" ht="45" spans="1:8">
+    <row r="53" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A53" s="54"/>
       <c r="B53" s="54" t="s">
         <v>114</v>
@@ -4502,7 +4494,7 @@
       <c r="G53" s="107"/>
       <c r="H53" s="107"/>
     </row>
-    <row r="54" s="100" customFormat="1" ht="45" spans="1:8">
+    <row r="54" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A54" s="54">
         <v>2</v>
       </c>
@@ -4522,7 +4514,7 @@
       <c r="G54" s="107"/>
       <c r="H54" s="107"/>
     </row>
-    <row r="55" s="100" customFormat="1" ht="45" spans="1:8">
+    <row r="55" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A55" s="54"/>
       <c r="B55" s="54" t="s">
         <v>119</v>
@@ -4540,7 +4532,7 @@
       <c r="G55" s="107"/>
       <c r="H55" s="107"/>
     </row>
-    <row r="56" s="100" customFormat="1" ht="45" spans="1:8">
+    <row r="56" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A56" s="54"/>
       <c r="B56" s="54" t="s">
         <v>120</v>
@@ -4558,7 +4550,7 @@
       <c r="G56" s="107"/>
       <c r="H56" s="107"/>
     </row>
-    <row r="57" s="100" customFormat="1" ht="45" spans="1:8">
+    <row r="57" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A57" s="54">
         <v>3</v>
       </c>
@@ -4578,7 +4570,7 @@
       <c r="G57" s="107"/>
       <c r="H57" s="107"/>
     </row>
-    <row r="58" s="100" customFormat="1" ht="45" spans="1:8">
+    <row r="58" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A58" s="54"/>
       <c r="B58" s="54" t="s">
         <v>124</v>
@@ -4596,7 +4588,7 @@
       <c r="G58" s="107"/>
       <c r="H58" s="107"/>
     </row>
-    <row r="59" s="100" customFormat="1" ht="45" spans="1:8">
+    <row r="59" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A59" s="54"/>
       <c r="B59" s="54" t="s">
         <v>126</v>
@@ -4614,55 +4606,55 @@
       <c r="G59" s="107"/>
       <c r="H59" s="107"/>
     </row>
-    <row r="60" s="134" customFormat="1" ht="45" spans="1:8">
-      <c r="A60" s="141">
+    <row r="60" s="133" customFormat="1" ht="45" spans="1:8">
+      <c r="A60" s="139">
         <v>4</v>
       </c>
-      <c r="B60" s="130" t="s">
+      <c r="B60" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="130" t="s">
+      <c r="C60" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="130" t="s">
+      <c r="D60" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="142"/>
-      <c r="F60" s="143"/>
-      <c r="G60" s="143"/>
-      <c r="H60" s="143"/>
-    </row>
-    <row r="61" s="100" customFormat="1" ht="45" spans="1:8">
-      <c r="A61" s="141"/>
-      <c r="B61" s="132" t="s">
+      <c r="E60" s="140"/>
+      <c r="F60" s="141"/>
+      <c r="G60" s="141"/>
+      <c r="H60" s="141"/>
+    </row>
+    <row r="61" s="99" customFormat="1" ht="45" spans="1:8">
+      <c r="A61" s="139"/>
+      <c r="B61" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="132" t="s">
+      <c r="C61" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="132" t="s">
+      <c r="D61" s="131" t="s">
         <v>125</v>
       </c>
       <c r="E61" s="109"/>
-      <c r="F61" s="113"/>
-      <c r="G61" s="113"/>
-      <c r="H61" s="113"/>
-    </row>
-    <row r="62" s="100" customFormat="1" ht="45" spans="1:8">
-      <c r="A62" s="141"/>
-      <c r="B62" s="132" t="s">
+      <c r="F61" s="100"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="100"/>
+    </row>
+    <row r="62" s="99" customFormat="1" ht="45" spans="1:8">
+      <c r="A62" s="139"/>
+      <c r="B62" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="132" t="s">
+      <c r="C62" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="132" t="s">
+      <c r="D62" s="131" t="s">
         <v>115</v>
       </c>
       <c r="E62" s="109"/>
-      <c r="F62" s="113"/>
-      <c r="G62" s="113"/>
-      <c r="H62" s="113"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4683,24 +4675,24 @@
   <sheetPr/>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.4285714285714" style="100" customWidth="1"/>
-    <col min="2" max="2" width="50.1428571428571" style="100" customWidth="1"/>
-    <col min="3" max="3" width="49" style="100" customWidth="1"/>
-    <col min="4" max="4" width="48.8571428571429" style="100" customWidth="1"/>
-    <col min="5" max="5" width="14.7142857142857" style="100" customWidth="1"/>
-    <col min="6" max="6" width="46.8571428571429" style="100" customWidth="1"/>
-    <col min="7" max="7" width="17.8571428571429" style="100" customWidth="1"/>
-    <col min="8" max="8" width="10.2857142857143" style="100" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="100"/>
+    <col min="1" max="1" width="12.4285714285714" style="99" customWidth="1"/>
+    <col min="2" max="2" width="50.1428571428571" style="99" customWidth="1"/>
+    <col min="3" max="3" width="49" style="99" customWidth="1"/>
+    <col min="4" max="4" width="48.8571428571429" style="99" customWidth="1"/>
+    <col min="5" max="5" width="14.7142857142857" style="99" customWidth="1"/>
+    <col min="6" max="6" width="46.8571428571429" style="99" customWidth="1"/>
+    <col min="7" max="7" width="17.8571428571429" style="99" customWidth="1"/>
+    <col min="8" max="8" width="10.2857142857143" style="99" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" s="100" customFormat="1" ht="52" customHeight="1" spans="1:9">
+    <row r="1" s="99" customFormat="1" ht="52" customHeight="1" spans="1:9">
       <c r="A1" s="52" t="s">
         <v>7</v>
       </c>
@@ -4719,7 +4711,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
     </row>
-    <row r="2" s="100" customFormat="1" spans="1:9">
+    <row r="2" s="99" customFormat="1" spans="1:9">
       <c r="A2" s="52" t="s">
         <v>11</v>
       </c>
@@ -4737,8 +4729,12 @@
       <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
+      <c r="A3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" s="101"/>
       <c r="D3" s="101"/>
       <c r="E3" s="101"/>
@@ -4758,7 +4754,7 @@
       <c r="H4" s="101"/>
       <c r="I4" s="101"/>
     </row>
-    <row r="5" s="100" customFormat="1" spans="1:8">
+    <row r="5" s="99" customFormat="1" spans="1:8">
       <c r="A5" s="52" t="s">
         <v>16</v>
       </c>
@@ -4774,7 +4770,7 @@
       <c r="G5" s="102"/>
       <c r="H5" s="102"/>
     </row>
-    <row r="6" s="100" customFormat="1" ht="75" spans="1:8">
+    <row r="6" s="99" customFormat="1" ht="75" spans="1:8">
       <c r="A6" s="48">
         <v>1</v>
       </c>
@@ -4790,7 +4786,7 @@
       <c r="G6" s="102"/>
       <c r="H6" s="102"/>
     </row>
-    <row r="7" s="100" customFormat="1" ht="30" spans="1:8">
+    <row r="7" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A7" s="48">
         <v>2</v>
       </c>
@@ -4804,7 +4800,7 @@
       <c r="G7" s="102"/>
       <c r="H7" s="102"/>
     </row>
-    <row r="8" s="100" customFormat="1" spans="1:9">
+    <row r="8" s="99" customFormat="1" spans="1:9">
       <c r="A8" s="48">
         <v>3</v>
       </c>
@@ -4819,7 +4815,7 @@
       <c r="H8" s="101"/>
       <c r="I8" s="101"/>
     </row>
-    <row r="9" s="100" customFormat="1" spans="1:9">
+    <row r="9" s="99" customFormat="1" spans="1:9">
       <c r="A9" s="48">
         <v>4</v>
       </c>
@@ -4834,7 +4830,7 @@
       <c r="H9" s="102"/>
       <c r="I9" s="102"/>
     </row>
-    <row r="10" s="100" customFormat="1" spans="1:9">
+    <row r="10" s="99" customFormat="1" spans="1:9">
       <c r="A10" s="48">
         <v>5</v>
       </c>
@@ -4849,7 +4845,7 @@
       <c r="H10" s="102"/>
       <c r="I10" s="102"/>
     </row>
-    <row r="11" s="100" customFormat="1" spans="1:9">
+    <row r="11" s="99" customFormat="1" spans="1:9">
       <c r="A11" s="101"/>
       <c r="B11" s="101"/>
       <c r="C11" s="102"/>
@@ -4860,7 +4856,7 @@
       <c r="H11" s="102"/>
       <c r="I11" s="102"/>
     </row>
-    <row r="12" s="100" customFormat="1" spans="1:9">
+    <row r="12" s="99" customFormat="1" spans="1:9">
       <c r="A12" s="52" t="s">
         <v>16</v>
       </c>
@@ -4875,7 +4871,7 @@
       <c r="H12" s="102"/>
       <c r="I12" s="102"/>
     </row>
-    <row r="13" s="100" customFormat="1" spans="1:9">
+    <row r="13" s="99" customFormat="1" spans="1:9">
       <c r="A13" s="105">
         <v>1</v>
       </c>
@@ -4890,7 +4886,7 @@
       <c r="H13" s="102"/>
       <c r="I13" s="102"/>
     </row>
-    <row r="14" s="100" customFormat="1" spans="1:9">
+    <row r="14" s="99" customFormat="1" spans="1:9">
       <c r="A14" s="105">
         <v>2</v>
       </c>
@@ -4905,7 +4901,7 @@
       <c r="H14" s="101"/>
       <c r="I14" s="101"/>
     </row>
-    <row r="15" s="100" customFormat="1" spans="1:9">
+    <row r="15" s="99" customFormat="1" spans="1:9">
       <c r="A15" s="105">
         <v>3</v>
       </c>
@@ -4920,7 +4916,7 @@
       <c r="H15" s="101"/>
       <c r="I15" s="101"/>
     </row>
-    <row r="16" s="100" customFormat="1" spans="1:9">
+    <row r="16" s="99" customFormat="1" spans="1:9">
       <c r="A16" s="105">
         <v>4</v>
       </c>
@@ -4935,7 +4931,7 @@
       <c r="H16" s="101"/>
       <c r="I16" s="101"/>
     </row>
-    <row r="17" s="100" customFormat="1" spans="1:9">
+    <row r="17" s="99" customFormat="1" spans="1:9">
       <c r="A17" s="105">
         <v>5</v>
       </c>
@@ -4950,7 +4946,7 @@
       <c r="H17" s="101"/>
       <c r="I17" s="101"/>
     </row>
-    <row r="18" s="100" customFormat="1" spans="1:9">
+    <row r="18" s="99" customFormat="1" spans="1:9">
       <c r="A18" s="105">
         <v>6</v>
       </c>
@@ -4965,10 +4961,10 @@
       <c r="H18" s="101"/>
       <c r="I18" s="101"/>
     </row>
-    <row r="19" s="100" customFormat="1" spans="9:9">
-      <c r="I19" s="133"/>
-    </row>
-    <row r="20" s="100" customFormat="1" ht="45" spans="1:9">
+    <row r="19" s="99" customFormat="1" spans="9:9">
+      <c r="I19" s="132"/>
+    </row>
+    <row r="20" s="99" customFormat="1" ht="45" spans="1:9">
       <c r="A20" s="108" t="s">
         <v>33</v>
       </c>
@@ -4993,9 +4989,9 @@
       <c r="H20" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="133"/>
-    </row>
-    <row r="21" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="I20" s="132"/>
+    </row>
+    <row r="21" s="99" customFormat="1" ht="45" spans="1:9">
       <c r="A21" s="47">
         <v>1</v>
       </c>
@@ -5018,9 +5014,9 @@
         <v>43</v>
       </c>
       <c r="H21" s="110"/>
-      <c r="I21" s="133"/>
-    </row>
-    <row r="22" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="I21" s="132"/>
+    </row>
+    <row r="22" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A22" s="48">
         <v>2</v>
       </c>
@@ -5044,7 +5040,7 @@
       </c>
       <c r="H22" s="56"/>
     </row>
-    <row r="23" s="100" customFormat="1" spans="1:8">
+    <row r="23" s="99" customFormat="1" spans="1:8">
       <c r="A23" s="111">
         <v>3</v>
       </c>
@@ -5068,7 +5064,7 @@
       </c>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" s="100" customFormat="1" ht="60" spans="1:8">
+    <row r="24" s="99" customFormat="1" ht="60" spans="1:8">
       <c r="A24" s="73">
         <v>4</v>
       </c>
@@ -5092,7 +5088,7 @@
       </c>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" s="100" customFormat="1" spans="1:8">
+    <row r="25" s="99" customFormat="1" spans="1:8">
       <c r="A25" s="111">
         <v>3</v>
       </c>
@@ -5116,7 +5112,7 @@
       </c>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" s="100" customFormat="1" ht="45" spans="1:8">
+    <row r="26" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A26" s="48">
         <v>6</v>
       </c>
@@ -5140,7 +5136,7 @@
       </c>
       <c r="H26" s="56"/>
     </row>
-    <row r="27" s="100" customFormat="1" ht="30" spans="1:8">
+    <row r="27" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A27" s="48">
         <v>7</v>
       </c>
@@ -5162,9 +5158,9 @@
       <c r="G27" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="113"/>
-    </row>
-    <row r="28" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="H27" s="100"/>
+    </row>
+    <row r="28" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A28" s="111">
         <v>8</v>
       </c>
@@ -5186,9 +5182,9 @@
       <c r="G28" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="113"/>
-    </row>
-    <row r="29" s="100" customFormat="1" ht="30" spans="1:8">
+      <c r="H28" s="100"/>
+    </row>
+    <row r="29" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A29" s="73"/>
       <c r="B29" s="48" t="s">
         <v>82</v>
@@ -5208,9 +5204,9 @@
       <c r="G29" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="113"/>
-    </row>
-    <row r="30" s="100" customFormat="1" ht="30" spans="1:8">
+      <c r="H29" s="100"/>
+    </row>
+    <row r="30" s="99" customFormat="1" ht="30" spans="1:8">
       <c r="A30" s="48">
         <v>9</v>
       </c>
@@ -5232,9 +5228,9 @@
       <c r="G30" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="113"/>
-    </row>
-    <row r="31" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="H30" s="100"/>
+    </row>
+    <row r="31" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A31" s="48">
         <v>10</v>
       </c>
@@ -5256,9 +5252,9 @@
       <c r="G31" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="113"/>
-    </row>
-    <row r="32" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="H31" s="100"/>
+    </row>
+    <row r="32" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A32" s="111">
         <v>11</v>
       </c>
@@ -5280,69 +5276,69 @@
       <c r="G32" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="113"/>
-    </row>
-    <row r="33" s="100" customFormat="1" ht="45" spans="1:8">
+      <c r="H32" s="100"/>
+    </row>
+    <row r="33" s="99" customFormat="1" ht="45" spans="1:8">
       <c r="A33" s="73">
         <v>12</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="114" t="s">
+      <c r="C33" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="114" t="s">
+      <c r="D33" s="113" t="s">
         <v>166</v>
       </c>
       <c r="E33" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="114" t="s">
+      <c r="F33" s="113" t="s">
         <v>166</v>
       </c>
       <c r="G33" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="113"/>
-    </row>
-    <row r="34" s="100" customFormat="1" spans="1:8">
-      <c r="A34" s="115"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-    </row>
-    <row r="35" s="100" customFormat="1" spans="1:8">
-      <c r="A35" s="115"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-    </row>
-    <row r="36" s="100" customFormat="1" spans="1:8">
-      <c r="A36" s="120" t="s">
+      <c r="H33" s="100"/>
+    </row>
+    <row r="34" s="99" customFormat="1" spans="1:8">
+      <c r="A34" s="114"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+    </row>
+    <row r="35" s="99" customFormat="1" spans="1:8">
+      <c r="A35" s="114"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+    </row>
+    <row r="36" s="99" customFormat="1" spans="1:8">
+      <c r="A36" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-    </row>
-    <row r="37" s="100" customFormat="1" ht="27" customHeight="1" spans="1:8">
-      <c r="A37" s="122">
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+    </row>
+    <row r="37" s="99" customFormat="1" ht="27" customHeight="1" spans="1:8">
+      <c r="A37" s="121">
         <v>13</v>
       </c>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="85" t="s">
         <v>98</v>
       </c>
       <c r="C37" s="107" t="s">
@@ -5354,15 +5350,15 @@
       <c r="E37" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
       <c r="H37" s="107"/>
     </row>
-    <row r="38" s="100" customFormat="1" ht="45" spans="1:8">
-      <c r="A38" s="122">
+    <row r="38" s="99" customFormat="1" ht="45" spans="1:8">
+      <c r="A38" s="121">
         <v>14</v>
       </c>
-      <c r="B38" s="86" t="s">
+      <c r="B38" s="85" t="s">
         <v>102</v>
       </c>
       <c r="C38" s="107" t="s">
@@ -5378,14 +5374,14 @@
       <c r="G38" s="107"/>
       <c r="H38" s="107"/>
     </row>
-    <row r="39" s="100" customFormat="1" ht="60" spans="1:8">
-      <c r="A39" s="122">
+    <row r="39" s="99" customFormat="1" ht="60" spans="1:8">
+      <c r="A39" s="121">
         <v>16</v>
       </c>
-      <c r="B39" s="124" t="s">
+      <c r="B39" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="125" t="s">
+      <c r="C39" s="124" t="s">
         <v>169</v>
       </c>
       <c r="D39" s="107"/>
@@ -5394,7 +5390,7 @@
       <c r="G39" s="107"/>
       <c r="H39" s="107"/>
     </row>
-    <row r="40" s="100" customFormat="1" spans="1:8">
+    <row r="40" s="99" customFormat="1" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -5404,62 +5400,62 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" s="100" customFormat="1" spans="1:8">
-      <c r="A41" s="126"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-    </row>
-    <row r="42" s="100" customFormat="1" ht="45" spans="1:8">
-      <c r="A42" s="127" t="s">
+    <row r="41" s="99" customFormat="1" spans="1:8">
+      <c r="A41" s="125"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+    </row>
+    <row r="42" s="99" customFormat="1" ht="45" spans="1:8">
+      <c r="A42" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="127" t="s">
+      <c r="C42" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="128" t="s">
+      <c r="D42" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="129" t="s">
+      <c r="E42" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="129"/>
-      <c r="G42" s="129"/>
-      <c r="H42" s="129" t="s">
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" s="100" customFormat="1" ht="45" spans="1:9">
-      <c r="A43" s="94">
+    <row r="43" s="99" customFormat="1" ht="45" spans="1:9">
+      <c r="A43" s="93">
         <v>1</v>
       </c>
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="94" t="s">
+      <c r="C43" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="94" t="s">
+      <c r="D43" s="93" t="s">
         <v>110</v>
       </c>
       <c r="E43" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
       <c r="H43" s="107"/>
-      <c r="I43" s="118"/>
-    </row>
-    <row r="44" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="I43" s="117"/>
+    </row>
+    <row r="44" s="99" customFormat="1" ht="45" spans="1:9">
       <c r="A44" s="54"/>
-      <c r="B44" s="97" t="s">
+      <c r="B44" s="96" t="s">
         <v>171</v>
       </c>
       <c r="C44" s="54" t="s">
@@ -5471,14 +5467,14 @@
       <c r="E44" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="123"/>
-      <c r="G44" s="123"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
       <c r="H44" s="107"/>
-      <c r="I44" s="118"/>
-    </row>
-    <row r="45" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="I44" s="117"/>
+    </row>
+    <row r="45" s="99" customFormat="1" ht="45" spans="1:9">
       <c r="A45" s="54"/>
-      <c r="B45" s="97" t="s">
+      <c r="B45" s="96" t="s">
         <v>172</v>
       </c>
       <c r="C45" s="54" t="s">
@@ -5490,16 +5486,16 @@
       <c r="E45" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
       <c r="H45" s="107"/>
-      <c r="I45" s="118"/>
-    </row>
-    <row r="46" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="I45" s="117"/>
+    </row>
+    <row r="46" s="99" customFormat="1" ht="45" spans="1:9">
       <c r="A46" s="54">
         <v>2</v>
       </c>
-      <c r="B46" s="97" t="s">
+      <c r="B46" s="96" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="54" t="s">
@@ -5514,11 +5510,11 @@
       <c r="F46" s="107"/>
       <c r="G46" s="107"/>
       <c r="H46" s="107"/>
-      <c r="I46" s="118"/>
-    </row>
-    <row r="47" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="I46" s="117"/>
+    </row>
+    <row r="47" s="99" customFormat="1" ht="45" spans="1:9">
       <c r="A47" s="54"/>
-      <c r="B47" s="97" t="s">
+      <c r="B47" s="96" t="s">
         <v>174</v>
       </c>
       <c r="C47" s="54" t="s">
@@ -5533,11 +5529,11 @@
       <c r="F47" s="107"/>
       <c r="G47" s="107"/>
       <c r="H47" s="107"/>
-      <c r="I47" s="118"/>
-    </row>
-    <row r="48" s="100" customFormat="1" ht="45" spans="1:9">
+      <c r="I47" s="117"/>
+    </row>
+    <row r="48" s="99" customFormat="1" ht="45" spans="1:9">
       <c r="A48" s="54"/>
-      <c r="B48" s="97" t="s">
+      <c r="B48" s="96" t="s">
         <v>176</v>
       </c>
       <c r="C48" s="54" t="s">
@@ -5552,54 +5548,54 @@
       <c r="F48" s="107"/>
       <c r="G48" s="107"/>
       <c r="H48" s="107"/>
-      <c r="I48" s="118"/>
-    </row>
-    <row r="49" s="100" customFormat="1" ht="45" spans="1:9">
-      <c r="A49" s="97">
+      <c r="I48" s="117"/>
+    </row>
+    <row r="49" s="99" customFormat="1" ht="45" spans="1:9">
+      <c r="A49" s="96">
         <v>3</v>
       </c>
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="C49" s="130" t="s">
+      <c r="C49" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="D49" s="131"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="118"/>
-    </row>
-    <row r="50" s="100" customFormat="1" ht="45" spans="1:9">
-      <c r="A50" s="97"/>
-      <c r="B50" s="130" t="s">
+      <c r="D49" s="130"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="117"/>
+    </row>
+    <row r="50" s="99" customFormat="1" ht="45" spans="1:9">
+      <c r="A50" s="96"/>
+      <c r="B50" s="129" t="s">
         <v>178</v>
       </c>
-      <c r="C50" s="132" t="s">
+      <c r="C50" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="131"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="113"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="113"/>
-      <c r="I50" s="118"/>
-    </row>
-    <row r="51" s="100" customFormat="1" ht="45" spans="1:9">
-      <c r="A51" s="97"/>
-      <c r="B51" s="130" t="s">
+      <c r="D50" s="130"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="117"/>
+    </row>
+    <row r="51" s="99" customFormat="1" ht="45" spans="1:9">
+      <c r="A51" s="96"/>
+      <c r="B51" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="C51" s="132" t="s">
+      <c r="C51" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="131"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="118"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5620,8 +5616,8 @@
   <sheetPr/>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5748,7 +5744,6 @@
         <v>21</v>
       </c>
       <c r="C8" s="53"/>
-      <c r="D8" s="44"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -5912,7 +5907,7 @@
       <c r="I19" s="60"/>
     </row>
     <row r="20" s="44" customFormat="1" spans="9:9">
-      <c r="I20" s="99"/>
+      <c r="I20" s="98"/>
     </row>
     <row r="21" s="44" customFormat="1" spans="1:9">
       <c r="A21" s="61" t="s">
@@ -5939,7 +5934,7 @@
       <c r="H21" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="99"/>
+      <c r="I21" s="98"/>
     </row>
     <row r="22" s="44" customFormat="1" ht="45" spans="1:9">
       <c r="A22" s="64">
@@ -5964,7 +5959,7 @@
         <v>43</v>
       </c>
       <c r="H22" s="67"/>
-      <c r="I22" s="99"/>
+      <c r="I22" s="98"/>
     </row>
     <row r="23" s="44" customFormat="1" spans="1:9">
       <c r="A23" s="64">
@@ -5989,7 +5984,7 @@
         <v>43</v>
       </c>
       <c r="H23" s="67"/>
-      <c r="I23" s="99"/>
+      <c r="I23" s="98"/>
     </row>
     <row r="24" s="44" customFormat="1" ht="45" spans="1:8">
       <c r="A24" s="69">
@@ -6129,7 +6124,7 @@
       <c r="G29" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="75"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" s="44" customFormat="1" ht="30" spans="1:8">
       <c r="A30" s="74"/>
@@ -6151,7 +6146,7 @@
       <c r="G30" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="75"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" s="44" customFormat="1" ht="60" spans="1:8">
       <c r="A31" s="69">
@@ -6175,7 +6170,7 @@
       <c r="G31" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="75"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" s="44" customFormat="1" ht="45" spans="1:8">
       <c r="A32" s="74"/>
@@ -6197,7 +6192,7 @@
       <c r="G32" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="75"/>
+      <c r="H32" s="50"/>
     </row>
     <row r="33" s="44" customFormat="1" ht="30" spans="1:8">
       <c r="A33" s="74">
@@ -6221,7 +6216,7 @@
       <c r="G33" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="75"/>
+      <c r="H33" s="50"/>
     </row>
     <row r="34" s="44" customFormat="1" ht="30" spans="1:8">
       <c r="A34" s="74">
@@ -6245,7 +6240,7 @@
       <c r="G34" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="75"/>
+      <c r="H34" s="50"/>
     </row>
     <row r="35" s="44" customFormat="1" ht="30" spans="1:8">
       <c r="A35" s="74">
@@ -6269,7 +6264,7 @@
       <c r="G35" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="75"/>
+      <c r="H35" s="50"/>
     </row>
     <row r="36" s="44" customFormat="1" ht="30" spans="1:8">
       <c r="A36" s="74">
@@ -6293,7 +6288,7 @@
       <c r="G36" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="75"/>
+      <c r="H36" s="50"/>
     </row>
     <row r="37" s="44" customFormat="1" ht="30" spans="1:8">
       <c r="A37" s="74">
@@ -6317,7 +6312,7 @@
       <c r="G37" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="75"/>
+      <c r="H37" s="50"/>
     </row>
     <row r="38" s="44" customFormat="1" ht="45" spans="1:8">
       <c r="A38" s="74">
@@ -6341,7 +6336,7 @@
       <c r="G38" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="75"/>
+      <c r="H38" s="50"/>
     </row>
     <row r="39" s="44" customFormat="1" ht="45" spans="1:8">
       <c r="A39" s="74">
@@ -6365,7 +6360,7 @@
       <c r="G39" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="75"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" s="44" customFormat="1" ht="30" spans="1:8">
       <c r="A40" s="74">
@@ -6389,7 +6384,7 @@
       <c r="G40" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="75"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" s="44" customFormat="1" ht="30" spans="1:8">
       <c r="A41" s="74">
@@ -6413,7 +6408,7 @@
       <c r="G41" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="75"/>
+      <c r="H41" s="50"/>
     </row>
     <row r="42" s="44" customFormat="1" ht="45" spans="1:8">
       <c r="A42" s="74">
@@ -6437,23 +6432,23 @@
       <c r="G42" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="75"/>
+      <c r="H42" s="50"/>
     </row>
     <row r="43" s="44" customFormat="1" ht="45" spans="1:8">
       <c r="A43" s="74"/>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="77" t="s">
+      <c r="C43" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="77" t="s">
+      <c r="D43" s="76" t="s">
         <v>96</v>
       </c>
       <c r="E43" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="77" t="s">
+      <c r="F43" s="76" t="s">
         <v>96</v>
       </c>
       <c r="G43" s="66" t="s">
@@ -6462,42 +6457,42 @@
       <c r="H43" s="58"/>
     </row>
     <row r="44" s="44" customFormat="1" spans="1:8">
-      <c r="A44" s="78"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
     </row>
     <row r="45" s="44" customFormat="1" spans="1:8">
-      <c r="A45" s="78"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
+      <c r="A45" s="77"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
     </row>
     <row r="46" s="44" customFormat="1" spans="1:8">
-      <c r="A46" s="83" t="s">
+      <c r="A46" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
     </row>
     <row r="47" s="44" customFormat="1" ht="75" spans="1:8">
-      <c r="A47" s="85">
+      <c r="A47" s="84">
         <v>21</v>
       </c>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="85" t="s">
         <v>98</v>
       </c>
       <c r="C47" s="54" t="s">
@@ -6509,15 +6504,15 @@
       <c r="E47" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="54"/>
     </row>
     <row r="48" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A48" s="85">
+      <c r="A48" s="84">
         <v>22</v>
       </c>
-      <c r="B48" s="86" t="s">
+      <c r="B48" s="85" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="54" t="s">
@@ -6534,10 +6529,10 @@
       <c r="H48" s="54"/>
     </row>
     <row r="49" s="44" customFormat="1" ht="75" spans="1:8">
-      <c r="A49" s="88">
+      <c r="A49" s="87">
         <v>24</v>
       </c>
-      <c r="B49" s="89" t="s">
+      <c r="B49" s="88" t="s">
         <v>100</v>
       </c>
       <c r="C49" s="54" t="s">
@@ -6564,50 +6559,50 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" s="44" customFormat="1" spans="1:8">
-      <c r="A51" s="90" t="s">
+      <c r="A51" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="90" t="s">
+      <c r="B51" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="90" t="s">
+      <c r="C51" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="90" t="s">
+      <c r="D51" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="E51" s="91" t="s">
+      <c r="E51" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="91"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="91" t="s">
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="52" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A52" s="92">
+      <c r="A52" s="91">
         <v>25</v>
       </c>
-      <c r="B52" s="93" t="s">
+      <c r="B52" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="94" t="s">
+      <c r="C52" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="94" t="s">
+      <c r="D52" s="93" t="s">
         <v>110</v>
       </c>
       <c r="E52" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="96"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="95"/>
     </row>
     <row r="53" s="44" customFormat="1" ht="45" spans="1:8">
       <c r="A53" s="20"/>
-      <c r="B53" s="97" t="s">
+      <c r="B53" s="96" t="s">
         <v>171</v>
       </c>
       <c r="C53" s="54" t="s">
@@ -6619,13 +6614,13 @@
       <c r="E53" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
       <c r="H53" s="7"/>
     </row>
     <row r="54" s="44" customFormat="1" ht="30" spans="1:8">
       <c r="A54" s="20"/>
-      <c r="B54" s="97" t="s">
+      <c r="B54" s="96" t="s">
         <v>172</v>
       </c>
       <c r="C54" s="54" t="s">
@@ -6637,15 +6632,15 @@
       <c r="E54" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="98"/>
-      <c r="G54" s="98"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
       <c r="H54" s="7"/>
     </row>
     <row r="55" s="44" customFormat="1" ht="45" spans="1:8">
       <c r="A55" s="20">
         <v>26</v>
       </c>
-      <c r="B55" s="97" t="s">
+      <c r="B55" s="96" t="s">
         <v>173</v>
       </c>
       <c r="C55" s="54" t="s">
@@ -6663,7 +6658,7 @@
     </row>
     <row r="56" s="44" customFormat="1" ht="45" spans="1:8">
       <c r="A56" s="20"/>
-      <c r="B56" s="97" t="s">
+      <c r="B56" s="96" t="s">
         <v>174</v>
       </c>
       <c r="C56" s="54" t="s">
@@ -6681,7 +6676,7 @@
     </row>
     <row r="57" s="44" customFormat="1" ht="30" spans="1:8">
       <c r="A57" s="20"/>
-      <c r="B57" s="97" t="s">
+      <c r="B57" s="96" t="s">
         <v>176</v>
       </c>
       <c r="C57" s="54" t="s">
@@ -6701,7 +6696,7 @@
       <c r="A58" s="20">
         <v>27</v>
       </c>
-      <c r="B58" s="97" t="s">
+      <c r="B58" s="96" t="s">
         <v>243</v>
       </c>
       <c r="C58" s="54" t="s">
@@ -6713,13 +6708,13 @@
       <c r="E58" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
     </row>
     <row r="59" s="44" customFormat="1" ht="45" spans="1:8">
       <c r="A59" s="20"/>
-      <c r="B59" s="97" t="s">
+      <c r="B59" s="96" t="s">
         <v>245</v>
       </c>
       <c r="C59" s="54" t="s">
@@ -6731,13 +6726,13 @@
       <c r="E59" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
     </row>
     <row r="60" s="44" customFormat="1" ht="30" spans="1:8">
       <c r="A60" s="20"/>
-      <c r="B60" s="97" t="s">
+      <c r="B60" s="96" t="s">
         <v>247</v>
       </c>
       <c r="C60" s="54" t="s">
@@ -6749,9 +6744,9 @@
       <c r="E60" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="75"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="9">
